--- a/test_report.xlsx
+++ b/test_report.xlsx
@@ -8,16 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://intel-my.sharepoint.com/personal/yoni_zadik_intel_com/Documents/Desktop/Yoni/PaloAlto/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="357" documentId="11_F25DC773A252ABDACC1048C4E15B41685BDE58E8" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{FC266B22-4AD5-4448-A1D5-7F52A68922E1}"/>
+  <xr:revisionPtr revIDLastSave="449" documentId="11_F25DC773A252ABDACC1048C4E15B41685BDE58E8" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{A408EBC2-1ED2-457F-A0E1-174ECD70AB1A}"/>
   <bookViews>
-    <workbookView xWindow="30" yWindow="300" windowWidth="28770" windowHeight="15300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Test strategy" sheetId="1" r:id="rId1"/>
     <sheet name="group_A bugs" sheetId="2" r:id="rId2"/>
     <sheet name="group_B bugs" sheetId="3" r:id="rId3"/>
     <sheet name="group_C bugs" sheetId="4" r:id="rId4"/>
-    <sheet name="Docker run" sheetId="6" r:id="rId5"/>
+    <sheet name="group_D2 bugs" sheetId="7" r:id="rId5"/>
+    <sheet name="Docker run" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="375" uniqueCount="124">
   <si>
     <t>Priority</t>
   </si>
@@ -43,9 +44,6 @@
     <t>C</t>
   </si>
   <si>
-    <t>D</t>
-  </si>
-  <si>
     <t>E</t>
   </si>
   <si>
@@ -58,11 +56,293 @@
     <t>Medium</t>
   </si>
   <si>
-    <t>Test description</t>
+    <t>F</t>
+  </si>
+  <si>
+    <t>G</t>
+  </si>
+  <si>
+    <t>H</t>
+  </si>
+  <si>
+    <t>Low</t>
+  </si>
+  <si>
+    <t>Test execution</t>
+  </si>
+  <si>
+    <t>py.test -m pymodules</t>
+  </si>
+  <si>
+    <t>py.test -m pyversion</t>
+  </si>
+  <si>
+    <t>py.test -m server</t>
+  </si>
+  <si>
+    <t>py.test -m illegal_name</t>
+  </si>
+  <si>
+    <t>py.test -m illegal_id</t>
+  </si>
+  <si>
+    <t>py.test -m one_2_one_name</t>
+  </si>
+  <si>
+    <t>py.test -m one_2_one_id</t>
+  </si>
+  <si>
+    <t>Test general strategy:</t>
+  </si>
+  <si>
+    <t>All ID's and names should have no empty or null values, each ID and name sould not be associated with more that one companion.</t>
+  </si>
+  <si>
+    <t>Test will also self check if new unique name-ID pairs are are pulled from DB, and check for environmental issues.</t>
+  </si>
+  <si>
+    <t>Each test group can be excuted seperatly by py.test framwork or in one global run.</t>
+  </si>
+  <si>
+    <t>Global test (run all together)</t>
+  </si>
+  <si>
+    <t>ALL</t>
+  </si>
+  <si>
+    <t>py.test server_api_test.py</t>
+  </si>
+  <si>
+    <t>Illegal name</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>page</t>
+  </si>
+  <si>
+    <t>null</t>
+  </si>
+  <si>
+    <t>Empty_name</t>
+  </si>
+  <si>
+    <t>Num of bugs</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>dijkstra festive</t>
+  </si>
+  <si>
+    <t>booth hungry</t>
+  </si>
+  <si>
+    <t>meitner compassionate</t>
+  </si>
+  <si>
+    <t>kepler modest</t>
+  </si>
+  <si>
+    <t>kilby compassionate</t>
+  </si>
+  <si>
+    <t>knuth modest</t>
+  </si>
+  <si>
+    <t>shaw inspiring</t>
+  </si>
+  <si>
+    <t>pasteur trusting</t>
+  </si>
+  <si>
+    <t>jepsen happy</t>
+  </si>
+  <si>
+    <t>meninsky romantic</t>
+  </si>
+  <si>
+    <t>bartik angry</t>
+  </si>
+  <si>
+    <t>austin inspiring</t>
+  </si>
+  <si>
+    <t>johnson dreamy</t>
+  </si>
+  <si>
+    <t>leakey infallible</t>
+  </si>
+  <si>
+    <t>joliot relaxed</t>
+  </si>
+  <si>
+    <t>euler frosty</t>
+  </si>
+  <si>
+    <t>hoover blissful</t>
+  </si>
+  <si>
+    <t>ramanujan confident</t>
+  </si>
+  <si>
+    <t>carson zen</t>
+  </si>
+  <si>
+    <t>morse inspiring</t>
+  </si>
+  <si>
+    <t>shirley zealous</t>
+  </si>
+  <si>
+    <t>brattain thirsty</t>
+  </si>
+  <si>
+    <t>leakey keen</t>
+  </si>
+  <si>
+    <t>heyrovsky affectionate</t>
+  </si>
+  <si>
+    <t>edison infallible</t>
+  </si>
+  <si>
+    <t>mccarthy infallible</t>
+  </si>
+  <si>
+    <t>mestorf vigorous</t>
+  </si>
+  <si>
+    <t>fermat clever</t>
+  </si>
+  <si>
+    <t>borg serene</t>
+  </si>
+  <si>
+    <t>einstein dazzling</t>
+  </si>
+  <si>
+    <t>yalow unruffled</t>
+  </si>
+  <si>
+    <t>visvesvaraya eager</t>
+  </si>
+  <si>
+    <t>allen awesome</t>
+  </si>
+  <si>
+    <t>beaver unruffled</t>
+  </si>
+  <si>
+    <t>easley wonderful</t>
+  </si>
+  <si>
+    <t>volhard wizardly</t>
+  </si>
+  <si>
+    <t>davinci angry</t>
+  </si>
+  <si>
+    <t>heyrovsky flamboyant</t>
+  </si>
+  <si>
+    <t>wozniak elastic</t>
+  </si>
+  <si>
+    <t>yonath pensive</t>
+  </si>
+  <si>
+    <t>benz admiring</t>
+  </si>
+  <si>
+    <t>hopper zealous</t>
+  </si>
+  <si>
+    <t>austin suspicious</t>
+  </si>
+  <si>
+    <t>pasteur cranky</t>
+  </si>
+  <si>
+    <t>yalow laughing</t>
+  </si>
+  <si>
+    <t>babbage elegant</t>
+  </si>
+  <si>
+    <t>allen confident</t>
+  </si>
+  <si>
+    <t>saha tender</t>
+  </si>
+  <si>
+    <t>jackson elastic</t>
+  </si>
+  <si>
+    <t>elion frosty</t>
+  </si>
+  <si>
+    <t>saha agitated</t>
+  </si>
+  <si>
+    <t>montalcini heuristic</t>
+  </si>
+  <si>
+    <t>snyder stoic</t>
+  </si>
+  <si>
+    <t>snyder blissful</t>
+  </si>
+  <si>
+    <t>northcutt lucid</t>
+  </si>
+  <si>
+    <t>mcnulty practical</t>
+  </si>
+  <si>
+    <t>wiles agitated</t>
+  </si>
+  <si>
+    <t>joliot flamboyant</t>
+  </si>
+  <si>
+    <t>babbage kind</t>
+  </si>
+  <si>
+    <t>edison elastic</t>
+  </si>
+  <si>
+    <t>almeida pedantic</t>
+  </si>
+  <si>
+    <t>sinoussi musing</t>
+  </si>
+  <si>
+    <t>Duplicated name</t>
+  </si>
+  <si>
+    <t>Duplicated id</t>
+  </si>
+  <si>
+    <t>docker build . -t yoni_app:test</t>
+  </si>
+  <si>
+    <t>Command</t>
+  </si>
+  <si>
+    <t>Screenshot</t>
+  </si>
+  <si>
+    <t>docker run -it --rm yoni_app:test</t>
+  </si>
+  <si>
+    <t>Docker App</t>
   </si>
   <si>
     <r>
-      <t xml:space="preserve">Verify each ID number is associated to </t>
+      <t xml:space="preserve">ID number is associated to more that </t>
     </r>
     <r>
       <rPr>
@@ -87,8 +367,11 @@
     </r>
   </si>
   <si>
+    <t>Name is empty or null</t>
+  </si>
+  <si>
     <r>
-      <t xml:space="preserve">Verify each player name is associated to </t>
+      <t xml:space="preserve">Player name is associated to nore than </t>
     </r>
     <r>
       <rPr>
@@ -113,11 +396,8 @@
     </r>
   </si>
   <si>
-    <t>Check each name isn't empty or null</t>
-  </si>
-  <si>
     <r>
-      <t xml:space="preserve">Check each ID number isn't empty and contains </t>
+      <t xml:space="preserve">ID number is empty or contains </t>
     </r>
     <r>
       <rPr>
@@ -128,7 +408,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>only</t>
+      <t>not only</t>
     </r>
     <r>
       <rPr>
@@ -142,289 +422,52 @@
     </r>
   </si>
   <si>
-    <t>Assure python version is updated to minimun required version</t>
-  </si>
-  <si>
-    <t>F</t>
-  </si>
-  <si>
-    <t>G</t>
-  </si>
-  <si>
-    <t>H</t>
-  </si>
-  <si>
-    <t>Low</t>
-  </si>
-  <si>
-    <t>Assure all modules are installed in VM running the test</t>
-  </si>
-  <si>
-    <t>Assure Linux executable exists, has premissions and running properly</t>
-  </si>
-  <si>
-    <t>Test execution</t>
-  </si>
-  <si>
-    <t>py.test -m pymodules</t>
-  </si>
-  <si>
-    <t>py.test -m pyversion</t>
-  </si>
-  <si>
-    <t>py.test -m server</t>
-  </si>
-  <si>
-    <t>py.test -m illegal_name</t>
-  </si>
-  <si>
-    <t>py.test -m illegal_id</t>
-  </si>
-  <si>
-    <t>py.test -m one_2_one_name</t>
-  </si>
-  <si>
-    <t>py.test -m one_2_one_id</t>
-  </si>
-  <si>
-    <t>Test general strategy:</t>
-  </si>
-  <si>
-    <t>All ID's and names should have no empty or null values, each ID and name sould not be associated with more that one companion.</t>
-  </si>
-  <si>
-    <t>Test will also self check if new unique name-ID pairs are are pulled from DB, and check for environmental issues.</t>
-  </si>
-  <si>
-    <t>Each test group can be excuted seperatly by py.test framwork or in one global run.</t>
-  </si>
-  <si>
-    <t>Global test (run all together)</t>
-  </si>
-  <si>
-    <t>ALL</t>
-  </si>
-  <si>
-    <t>py.test server_api_test.py</t>
-  </si>
-  <si>
-    <t>Illegal name</t>
-  </si>
-  <si>
-    <t>id</t>
-  </si>
-  <si>
-    <t>page</t>
-  </si>
-  <si>
-    <t>null</t>
-  </si>
-  <si>
-    <t>Empty_name</t>
-  </si>
-  <si>
-    <t>Num of bugs</t>
-  </si>
-  <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>dijkstra festive</t>
-  </si>
-  <si>
-    <t>booth hungry</t>
-  </si>
-  <si>
-    <t>lamport laughing</t>
-  </si>
-  <si>
-    <t>meitner compassionate</t>
-  </si>
-  <si>
-    <t>kepler modest</t>
-  </si>
-  <si>
-    <t>hopper lucid</t>
-  </si>
-  <si>
-    <t>kilby compassionate</t>
-  </si>
-  <si>
-    <t>knuth modest</t>
-  </si>
-  <si>
-    <t>shaw inspiring</t>
-  </si>
-  <si>
-    <t>pasteur trusting</t>
-  </si>
-  <si>
-    <t>jepsen happy</t>
-  </si>
-  <si>
-    <t>meninsky romantic</t>
-  </si>
-  <si>
-    <t>bartik angry</t>
-  </si>
-  <si>
-    <t>austin inspiring</t>
-  </si>
-  <si>
-    <t>johnson dreamy</t>
-  </si>
-  <si>
-    <t>leakey infallible</t>
-  </si>
-  <si>
-    <t>joliot relaxed</t>
-  </si>
-  <si>
-    <t>euler frosty</t>
-  </si>
-  <si>
-    <t>hoover blissful</t>
-  </si>
-  <si>
-    <t>ramanujan confident</t>
-  </si>
-  <si>
-    <t>carson zen</t>
-  </si>
-  <si>
-    <t>morse inspiring</t>
-  </si>
-  <si>
-    <t>shirley zealous</t>
-  </si>
-  <si>
-    <t>brattain thirsty</t>
-  </si>
-  <si>
-    <t>leakey keen</t>
-  </si>
-  <si>
-    <t>heyrovsky affectionate</t>
-  </si>
-  <si>
-    <t>edison infallible</t>
-  </si>
-  <si>
-    <t>mccarthy infallible</t>
-  </si>
-  <si>
-    <t>mestorf vigorous</t>
-  </si>
-  <si>
-    <t>fermat clever</t>
-  </si>
-  <si>
-    <t>borg serene</t>
-  </si>
-  <si>
-    <t>einstein dazzling</t>
-  </si>
-  <si>
-    <t>yalow unruffled</t>
-  </si>
-  <si>
-    <t>visvesvaraya eager</t>
-  </si>
-  <si>
-    <t>allen awesome</t>
-  </si>
-  <si>
-    <t>beaver unruffled</t>
-  </si>
-  <si>
-    <t>easley wonderful</t>
-  </si>
-  <si>
-    <t>volhard wizardly</t>
-  </si>
-  <si>
-    <t>davinci angry</t>
-  </si>
-  <si>
-    <t>heyrovsky flamboyant</t>
-  </si>
-  <si>
-    <t>wozniak elastic</t>
-  </si>
-  <si>
-    <t>yonath pensive</t>
-  </si>
-  <si>
-    <t>benz admiring</t>
-  </si>
-  <si>
-    <t>hopper zealous</t>
-  </si>
-  <si>
-    <t>austin suspicious</t>
-  </si>
-  <si>
-    <t>pasteur cranky</t>
-  </si>
-  <si>
-    <t>yalow laughing</t>
-  </si>
-  <si>
-    <t>babbage elegant</t>
-  </si>
-  <si>
-    <t>allen confident</t>
-  </si>
-  <si>
-    <t>saha tender</t>
-  </si>
-  <si>
-    <t>jackson elastic</t>
-  </si>
-  <si>
-    <t>elion frosty</t>
-  </si>
-  <si>
-    <t>saha agitated</t>
-  </si>
-  <si>
-    <t>montalcini heuristic</t>
-  </si>
-  <si>
-    <t>snyder stoic</t>
-  </si>
-  <si>
-    <t>snyder blissful</t>
-  </si>
-  <si>
-    <t>northcutt lucid</t>
-  </si>
-  <si>
-    <t>mcnulty practical</t>
-  </si>
-  <si>
-    <t>wiles agitated</t>
-  </si>
-  <si>
-    <t>joliot flamboyant</t>
-  </si>
-  <si>
-    <t>babbage kind</t>
-  </si>
-  <si>
-    <t>edison elastic</t>
-  </si>
-  <si>
-    <t>almeida pedantic</t>
-  </si>
-  <si>
-    <t>sinoussi musing</t>
-  </si>
-  <si>
-    <t>Duplicated name</t>
-  </si>
-  <si>
-    <t>Duplicated id</t>
+    <t>Linux executable issues</t>
+  </si>
+  <si>
+    <t>Python version is not updated to required version</t>
+  </si>
+  <si>
+    <t>Modules are not installed in VM</t>
+  </si>
+  <si>
+    <t>Bug short description</t>
+  </si>
+  <si>
+    <t>D1</t>
+  </si>
+  <si>
+    <t>D2</t>
+  </si>
+  <si>
+    <t>Recreate</t>
+  </si>
+  <si>
+    <t>starting from ID 49, add each time 50 and get the missing one</t>
+  </si>
+  <si>
+    <t>navigate pages and see occurrences</t>
+  </si>
+  <si>
+    <t>not found any related bug</t>
+  </si>
+  <si>
+    <t>ID creation are not following numbers</t>
+  </si>
+  <si>
+    <t>py.test -m unfollowing_id</t>
+  </si>
+  <si>
+    <t>Missing ID's</t>
+  </si>
+  <si>
+    <t>raman jolly</t>
+  </si>
+  <si>
+    <t>pasteur priceless</t>
+  </si>
+  <si>
+    <t>empty name</t>
   </si>
   <si>
     <r>
@@ -446,23 +489,8 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>:  /home/yonizadi/playerApi_files3</t>
+      <t>:  /home/yonizadi/playerApi_files1</t>
     </r>
-  </si>
-  <si>
-    <t>docker build . -t yoni_app:test</t>
-  </si>
-  <si>
-    <t>Command</t>
-  </si>
-  <si>
-    <t>Screenshot</t>
-  </si>
-  <si>
-    <t>docker run -it --rm yoni_app:test</t>
-  </si>
-  <si>
-    <t>Docker App</t>
   </si>
 </sst>
 </file>
@@ -541,7 +569,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -578,6 +606,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -688,7 +722,7 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -712,6 +746,10 @@
     <xf numFmtId="0" fontId="5" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -724,9 +762,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -736,7 +771,13 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Bad" xfId="2" builtinId="27"/>
@@ -1245,72 +1286,76 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H15"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="11.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="66.7109375" style="2" customWidth="1"/>
-    <col min="4" max="4" width="16.7109375" style="2" customWidth="1"/>
-    <col min="5" max="5" width="27.42578125" style="2" customWidth="1"/>
-    <col min="6" max="16384" width="9.140625" style="2"/>
+    <col min="3" max="3" width="53.140625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="14.5703125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="28" style="2" customWidth="1"/>
+    <col min="6" max="6" width="55.28515625" style="2" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="13"/>
+      <c r="A1" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="17"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="B2" s="12"/>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="13"/>
+      <c r="A2" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" s="16"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="17"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="B3" s="12"/>
-      <c r="C3" s="12"/>
-      <c r="D3" s="12"/>
-      <c r="E3" s="13"/>
+      <c r="A3" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" s="16"/>
+      <c r="C3" s="16"/>
+      <c r="D3" s="16"/>
+      <c r="E3" s="17"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="B4" s="12"/>
-      <c r="C4" s="12"/>
-      <c r="D4" s="12"/>
-      <c r="E4" s="13"/>
+      <c r="A4" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" s="16"/>
+      <c r="C4" s="16"/>
+      <c r="D4" s="16"/>
+      <c r="E4" s="17"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B5" s="6" t="s">
         <v>0</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>9</v>
+        <v>110</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>21</v>
+        <v>12</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -1318,16 +1363,19 @@
         <v>1</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>11</v>
+        <v>105</v>
       </c>
       <c r="D6" s="1">
         <v>20</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>27</v>
+        <v>18</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -1335,16 +1383,19 @@
         <v>2</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>10</v>
+        <v>103</v>
       </c>
       <c r="D7" s="1">
         <v>49</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>28</v>
+        <v>19</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -1352,112 +1403,138 @@
         <v>3</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>12</v>
+        <v>104</v>
       </c>
       <c r="D8" s="1">
         <v>170</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>25</v>
+        <v>16</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>4</v>
+        <v>111</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>13</v>
+        <v>106</v>
       </c>
       <c r="D9" s="1">
         <v>0</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>26</v>
+        <v>17</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>18</v>
+        <v>112</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>7</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>20</v>
+        <v>117</v>
       </c>
       <c r="D10" s="1">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>24</v>
+        <v>118</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>14</v>
+        <v>107</v>
       </c>
       <c r="D11" s="1">
         <v>0</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>19</v>
+        <v>108</v>
       </c>
       <c r="D12" s="1">
         <v>0</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="G12" s="9"/>
-      <c r="H12" s="8"/>
+        <v>14</v>
+      </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B13" s="10" t="s">
-        <v>34</v>
+        <v>9</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>11</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D13" s="1"/>
+        <v>109</v>
+      </c>
+      <c r="D13" s="1">
+        <v>0</v>
+      </c>
       <c r="E13" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="18" t="s">
-        <v>109</v>
-      </c>
-      <c r="B15" s="19"/>
-      <c r="C15" s="19"/>
-      <c r="D15" s="19"/>
-      <c r="E15" s="20"/>
-      <c r="F15" s="17"/>
+        <v>13</v>
+      </c>
+      <c r="G13" s="9"/>
+      <c r="H13" s="8"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" s="1"/>
+      <c r="E14" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="19" t="s">
+        <v>123</v>
+      </c>
+      <c r="B16" s="20"/>
+      <c r="C16" s="20"/>
+      <c r="D16" s="20"/>
+      <c r="E16" s="21"/>
+      <c r="F16" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -1465,7 +1542,7 @@
     <mergeCell ref="A3:E3"/>
     <mergeCell ref="A4:E4"/>
     <mergeCell ref="A2:E2"/>
-    <mergeCell ref="A15:E15"/>
+    <mergeCell ref="A16:E16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1476,8 +1553,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{984D3565-9EFF-4B90-A125-C1EECC38986D}">
   <dimension ref="A1:C41"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1487,132 +1564,132 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="16" t="s">
-        <v>107</v>
-      </c>
-      <c r="B1" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="C1" s="16" t="s">
-        <v>38</v>
+      <c r="A1" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>43</v>
+        <v>120</v>
       </c>
       <c r="B2">
-        <v>180</v>
+        <v>419</v>
       </c>
       <c r="C2">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>43</v>
+        <v>120</v>
       </c>
       <c r="B3">
-        <v>265</v>
+        <v>451</v>
       </c>
       <c r="C3">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="B4">
-        <v>397</v>
+        <v>19</v>
       </c>
       <c r="C4">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="B5">
-        <v>738</v>
+        <v>31</v>
       </c>
       <c r="C5">
-        <v>15</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="B6">
-        <v>94</v>
+        <v>346</v>
       </c>
       <c r="C6">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="B7">
-        <v>188</v>
+        <v>446</v>
       </c>
       <c r="C7">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>46</v>
+        <v>121</v>
       </c>
       <c r="B8">
-        <v>132</v>
+        <v>365</v>
       </c>
       <c r="C8">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>46</v>
+        <v>121</v>
       </c>
       <c r="B9">
-        <v>726</v>
+        <v>655</v>
       </c>
       <c r="C9">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="B10">
-        <v>346</v>
+        <v>397</v>
       </c>
       <c r="C10">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="B11">
-        <v>446</v>
+        <v>738</v>
       </c>
       <c r="C11">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="B12">
-        <v>62</v>
+        <v>78</v>
       </c>
       <c r="C12">
         <v>2</v>
@@ -1620,54 +1697,54 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="B13">
-        <v>517</v>
+        <v>657</v>
       </c>
       <c r="C13">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="B14">
-        <v>78</v>
+        <v>180</v>
       </c>
       <c r="C14">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="B15">
-        <v>657</v>
+        <v>265</v>
       </c>
       <c r="C15">
-        <v>14</v>
+        <v>6</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="B16">
-        <v>445</v>
+        <v>283</v>
       </c>
       <c r="C16">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="B17">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="C17">
         <v>11</v>
@@ -1675,7 +1752,7 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="B18">
         <v>173</v>
@@ -1686,7 +1763,7 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="B19">
         <v>469</v>
@@ -1697,10 +1774,10 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="B20">
-        <v>428</v>
+        <v>445</v>
       </c>
       <c r="C20">
         <v>9</v>
@@ -1708,10 +1785,10 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
       <c r="B21">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="C21">
         <v>11</v>
@@ -1719,43 +1796,43 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="B22">
-        <v>377</v>
+        <v>1</v>
       </c>
       <c r="C22">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="B23">
-        <v>379</v>
+        <v>681</v>
       </c>
       <c r="C23">
-        <v>8</v>
+        <v>14</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="B24">
-        <v>283</v>
+        <v>428</v>
       </c>
       <c r="C24">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>54</v>
+        <v>41</v>
       </c>
       <c r="B25">
-        <v>519</v>
+        <v>524</v>
       </c>
       <c r="C25">
         <v>11</v>
@@ -1763,32 +1840,32 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="B26">
-        <v>8</v>
+        <v>50</v>
       </c>
       <c r="C26">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="B27">
-        <v>74</v>
+        <v>740</v>
       </c>
       <c r="C27">
-        <v>2</v>
+        <v>15</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="B28">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="C28">
         <v>1</v>
@@ -1796,84 +1873,84 @@
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="B29">
-        <v>681</v>
+        <v>74</v>
       </c>
       <c r="C29">
-        <v>14</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="B30">
-        <v>43</v>
+        <v>377</v>
       </c>
       <c r="C30">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="B31">
-        <v>186</v>
+        <v>379</v>
       </c>
       <c r="C31">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="B32">
-        <v>228</v>
+        <v>355</v>
       </c>
       <c r="C32">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="B33">
-        <v>471</v>
+        <v>382</v>
       </c>
       <c r="C33">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>59</v>
+        <v>36</v>
       </c>
       <c r="B34">
-        <v>355</v>
+        <v>132</v>
       </c>
       <c r="C34">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>59</v>
+        <v>36</v>
       </c>
       <c r="B35">
-        <v>382</v>
+        <v>726</v>
       </c>
       <c r="C35">
-        <v>8</v>
+        <v>15</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="B36">
         <v>85</v>
@@ -1884,7 +1961,7 @@
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
       <c r="B37">
         <v>219</v>
@@ -1895,32 +1972,32 @@
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>61</v>
+        <v>47</v>
       </c>
       <c r="B38">
-        <v>50</v>
+        <v>228</v>
       </c>
       <c r="C38">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>61</v>
+        <v>47</v>
       </c>
       <c r="B39">
-        <v>740</v>
+        <v>471</v>
       </c>
       <c r="C39">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="B40">
-        <v>19</v>
+        <v>40</v>
       </c>
       <c r="C40">
         <v>1</v>
@@ -1928,13 +2005,13 @@
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="B41">
-        <v>31</v>
+        <v>185</v>
       </c>
       <c r="C41">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -1947,7 +2024,7 @@
   <dimension ref="A1:C99"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1958,93 +2035,108 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="B1" s="16" t="s">
-        <v>108</v>
-      </c>
-      <c r="C1" s="16" t="s">
-        <v>38</v>
+      <c r="A1" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>63</v>
+        <v>92</v>
       </c>
       <c r="B2">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="C2">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B3">
-        <v>16</v>
-      </c>
-      <c r="C3">
-        <v>18</v>
+      <c r="A3" s="24" t="s">
+        <v>122</v>
+      </c>
+      <c r="B3" s="24">
+        <v>28</v>
+      </c>
+      <c r="C3" s="24">
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>64</v>
+        <v>82</v>
       </c>
       <c r="B4">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="C4">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B5">
-        <v>32</v>
-      </c>
-      <c r="C5">
-        <v>20</v>
+      <c r="A5" s="24" t="s">
+        <v>122</v>
+      </c>
+      <c r="B5" s="24">
+        <v>17</v>
+      </c>
+      <c r="C5" s="24">
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>65</v>
+        <v>88</v>
       </c>
       <c r="B6">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="C6">
         <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B7">
-        <v>5</v>
-      </c>
-      <c r="C7">
-        <v>20</v>
+      <c r="A7" s="24" t="s">
+        <v>122</v>
+      </c>
+      <c r="B7" s="24">
+        <v>22</v>
+      </c>
+      <c r="C7" s="24">
+        <v>24</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>66</v>
+        <v>89</v>
       </c>
       <c r="B8">
-        <v>3</v>
+        <v>47</v>
       </c>
       <c r="C8">
         <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B9">
-        <v>3</v>
-      </c>
-      <c r="C9">
-        <v>40</v>
+      <c r="A9" s="24" t="s">
+        <v>122</v>
+      </c>
+      <c r="B9" s="24">
+        <v>47</v>
+      </c>
+      <c r="C9" s="24">
+        <v>33</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>122</v>
+      </c>
       <c r="B10">
         <v>7</v>
       </c>
@@ -2053,19 +2145,19 @@
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>67</v>
-      </c>
-      <c r="B11">
+      <c r="A11" s="24" t="s">
+        <v>56</v>
+      </c>
+      <c r="B11" s="24">
         <v>7</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="24">
         <v>18</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="B12">
         <v>43</v>
@@ -2075,106 +2167,124 @@
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B13">
+      <c r="A13" s="24" t="s">
+        <v>122</v>
+      </c>
+      <c r="B13" s="24">
         <v>43</v>
       </c>
-      <c r="C13">
-        <v>31</v>
+      <c r="C13" s="24">
+        <v>24</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>68</v>
+        <v>45</v>
       </c>
       <c r="B14">
-        <v>34</v>
+        <v>1</v>
       </c>
       <c r="C14">
         <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B15">
-        <v>34</v>
-      </c>
-      <c r="C15">
-        <v>30</v>
+      <c r="A15" s="24" t="s">
+        <v>122</v>
+      </c>
+      <c r="B15" s="24">
+        <v>1</v>
+      </c>
+      <c r="C15" s="24">
+        <v>35</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>69</v>
+        <v>122</v>
       </c>
       <c r="B16">
-        <v>42</v>
+        <v>5</v>
       </c>
       <c r="C16">
         <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B17">
-        <v>42</v>
-      </c>
-      <c r="C17">
-        <v>26</v>
+      <c r="A17" s="24" t="s">
+        <v>54</v>
+      </c>
+      <c r="B17" s="24">
+        <v>5</v>
+      </c>
+      <c r="C17" s="24">
+        <v>18</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="B18">
+        <v>32</v>
+      </c>
+      <c r="C18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="24" t="s">
+        <v>122</v>
+      </c>
+      <c r="B19" s="24">
+        <v>32</v>
+      </c>
+      <c r="C19" s="24">
         <v>19</v>
-      </c>
-      <c r="C18">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B19">
-        <v>19</v>
-      </c>
-      <c r="C19">
-        <v>23</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>70</v>
+        <v>57</v>
       </c>
       <c r="B20">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="C20">
         <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B21">
-        <v>41</v>
-      </c>
-      <c r="C21">
-        <v>19</v>
+      <c r="A21" s="24" t="s">
+        <v>122</v>
+      </c>
+      <c r="B21" s="24">
+        <v>34</v>
+      </c>
+      <c r="C21" s="24">
+        <v>21</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="B22">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="C22">
         <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B23">
-        <v>29</v>
-      </c>
-      <c r="C23">
-        <v>28</v>
+      <c r="A23" s="24" t="s">
+        <v>122</v>
+      </c>
+      <c r="B23" s="24">
+        <v>36</v>
+      </c>
+      <c r="C23" s="24">
+        <v>27</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
@@ -2182,460 +2292,532 @@
         <v>72</v>
       </c>
       <c r="B24">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="C24">
         <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B25">
-        <v>13</v>
-      </c>
-      <c r="C25">
-        <v>24</v>
+      <c r="A25" s="24" t="s">
+        <v>122</v>
+      </c>
+      <c r="B25" s="24">
+        <v>39</v>
+      </c>
+      <c r="C25" s="24">
+        <v>56</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>73</v>
+        <v>122</v>
       </c>
       <c r="B26">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="C26">
         <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B27">
-        <v>15</v>
-      </c>
-      <c r="C27">
-        <v>24</v>
+      <c r="A27" s="24" t="s">
+        <v>95</v>
+      </c>
+      <c r="B27" s="24">
+        <v>4</v>
+      </c>
+      <c r="C27" s="24">
+        <v>18</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B28">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="C28">
         <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B29">
-        <v>36</v>
-      </c>
-      <c r="C29">
-        <v>27</v>
+      <c r="A29" s="24" t="s">
+        <v>122</v>
+      </c>
+      <c r="B29" s="24">
+        <v>40</v>
+      </c>
+      <c r="C29" s="24">
+        <v>42</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B30">
-        <v>23</v>
+        <v>45</v>
       </c>
       <c r="C30">
         <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B31">
-        <v>23</v>
-      </c>
-      <c r="C31">
-        <v>25</v>
+      <c r="A31" s="24" t="s">
+        <v>122</v>
+      </c>
+      <c r="B31" s="24">
+        <v>45</v>
+      </c>
+      <c r="C31" s="24">
+        <v>20</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>76</v>
+        <v>60</v>
       </c>
       <c r="B32">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C32">
         <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B33">
-        <v>26</v>
-      </c>
-      <c r="C33">
-        <v>81</v>
+      <c r="A33" s="24" t="s">
+        <v>122</v>
+      </c>
+      <c r="B33" s="24">
+        <v>29</v>
+      </c>
+      <c r="C33" s="24">
+        <v>18</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>77</v>
+        <v>55</v>
       </c>
       <c r="B34">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C34">
         <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B35">
-        <v>2</v>
-      </c>
-      <c r="C35">
-        <v>27</v>
+      <c r="A35" s="24" t="s">
+        <v>122</v>
+      </c>
+      <c r="B35" s="24">
+        <v>3</v>
+      </c>
+      <c r="C35" s="24">
+        <v>20</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="B36">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="C36">
         <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B37">
-        <v>20</v>
-      </c>
-      <c r="C37">
-        <v>32</v>
+      <c r="A37" s="24" t="s">
+        <v>122</v>
+      </c>
+      <c r="B37" s="24">
+        <v>38</v>
+      </c>
+      <c r="C37" s="24">
+        <v>31</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>79</v>
+        <v>62</v>
       </c>
       <c r="B38">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="C38">
         <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B39">
-        <v>27</v>
-      </c>
-      <c r="C39">
-        <v>39</v>
+      <c r="A39" s="24" t="s">
+        <v>122</v>
+      </c>
+      <c r="B39" s="24">
+        <v>15</v>
+      </c>
+      <c r="C39" s="24">
+        <v>21</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>80</v>
+        <v>122</v>
       </c>
       <c r="B40">
-        <v>14</v>
+        <v>37</v>
       </c>
       <c r="C40">
         <v>1</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B41">
-        <v>14</v>
-      </c>
-      <c r="C41">
-        <v>20</v>
+      <c r="A41" s="24" t="s">
+        <v>76</v>
+      </c>
+      <c r="B41" s="24">
+        <v>37</v>
+      </c>
+      <c r="C41" s="24">
+        <v>18</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>81</v>
+        <v>52</v>
       </c>
       <c r="B42">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C42">
         <v>1</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B43">
-        <v>9</v>
-      </c>
-      <c r="C43">
-        <v>38</v>
+      <c r="A43" s="24" t="s">
+        <v>122</v>
+      </c>
+      <c r="B43" s="24">
+        <v>16</v>
+      </c>
+      <c r="C43" s="24">
+        <v>25</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>82</v>
+        <v>70</v>
       </c>
       <c r="B44">
-        <v>40</v>
+        <v>9</v>
       </c>
       <c r="C44">
         <v>1</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B45">
-        <v>40</v>
-      </c>
-      <c r="C45">
-        <v>43</v>
+      <c r="A45" s="24" t="s">
+        <v>122</v>
+      </c>
+      <c r="B45" s="24">
+        <v>9</v>
+      </c>
+      <c r="C45" s="24">
+        <v>26</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B46">
-        <v>31</v>
+        <v>2</v>
       </c>
       <c r="C46">
         <v>1</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B47">
-        <v>31</v>
-      </c>
-      <c r="C47">
-        <v>34</v>
+      <c r="A47" s="24" t="s">
+        <v>122</v>
+      </c>
+      <c r="B47" s="24">
+        <v>2</v>
+      </c>
+      <c r="C47" s="24">
+        <v>40</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>87</v>
+      </c>
       <c r="B48">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="C48">
         <v>1</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
-        <v>83</v>
-      </c>
-      <c r="B49">
-        <v>39</v>
-      </c>
-      <c r="C49">
+      <c r="A49" s="24" t="s">
+        <v>122</v>
+      </c>
+      <c r="B49" s="24">
         <v>18</v>
       </c>
+      <c r="C49" s="24">
+        <v>37</v>
+      </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>51</v>
+      </c>
       <c r="B50">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="C50">
         <v>1</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
-        <v>84</v>
-      </c>
-      <c r="B51">
-        <v>24</v>
-      </c>
-      <c r="C51">
-        <v>18</v>
+      <c r="A51" s="24" t="s">
+        <v>122</v>
+      </c>
+      <c r="B51" s="24">
+        <v>31</v>
+      </c>
+      <c r="C51" s="24">
+        <v>20</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
+        <v>81</v>
+      </c>
+      <c r="B52">
+        <v>44</v>
+      </c>
+      <c r="C52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" s="24" t="s">
+        <v>122</v>
+      </c>
+      <c r="B53" s="24">
+        <v>44</v>
+      </c>
+      <c r="C53" s="24">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>122</v>
+      </c>
+      <c r="B54">
+        <v>12</v>
+      </c>
+      <c r="C54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55" s="24" t="s">
         <v>85</v>
       </c>
-      <c r="B52">
-        <v>10</v>
-      </c>
-      <c r="C52">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B53">
-        <v>10</v>
-      </c>
-      <c r="C53">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B54">
-        <v>46</v>
-      </c>
-      <c r="C54">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
-        <v>86</v>
-      </c>
-      <c r="B55">
-        <v>46</v>
-      </c>
-      <c r="C55">
+      <c r="B55" s="24">
+        <v>12</v>
+      </c>
+      <c r="C55" s="24">
         <v>18</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>87</v>
+        <v>68</v>
       </c>
       <c r="B56">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="C56">
         <v>1</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B57">
-        <v>37</v>
-      </c>
-      <c r="C57">
-        <v>19</v>
+      <c r="A57" s="24" t="s">
+        <v>122</v>
+      </c>
+      <c r="B57" s="24">
+        <v>27</v>
+      </c>
+      <c r="C57" s="24">
+        <v>25</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>69</v>
+      </c>
       <c r="B58">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="C58">
         <v>1</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
-        <v>88</v>
-      </c>
-      <c r="B59">
-        <v>25</v>
-      </c>
-      <c r="C59">
+      <c r="A59" s="24" t="s">
+        <v>122</v>
+      </c>
+      <c r="B59" s="24">
+        <v>14</v>
+      </c>
+      <c r="C59" s="24">
         <v>18</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>89</v>
+        <v>51</v>
       </c>
       <c r="B60">
-        <v>45</v>
+        <v>19</v>
       </c>
       <c r="C60">
         <v>1</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B61">
-        <v>45</v>
-      </c>
-      <c r="C61">
-        <v>36</v>
+      <c r="A61" s="24" t="s">
+        <v>122</v>
+      </c>
+      <c r="B61" s="24">
+        <v>19</v>
+      </c>
+      <c r="C61" s="24">
+        <v>24</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>56</v>
+        <v>90</v>
       </c>
       <c r="B62">
-        <v>1</v>
+        <v>48</v>
       </c>
       <c r="C62">
         <v>1</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B63">
-        <v>1</v>
-      </c>
-      <c r="C63">
-        <v>18</v>
+      <c r="A63" s="24" t="s">
+        <v>122</v>
+      </c>
+      <c r="B63" s="24">
+        <v>48</v>
+      </c>
+      <c r="C63" s="24">
+        <v>33</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>90</v>
+        <v>65</v>
       </c>
       <c r="B64">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="C64">
         <v>1</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B65">
-        <v>11</v>
-      </c>
-      <c r="C65">
-        <v>23</v>
+      <c r="A65" s="24" t="s">
+        <v>122</v>
+      </c>
+      <c r="B65" s="24">
+        <v>26</v>
+      </c>
+      <c r="C65" s="24">
+        <v>39</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>91</v>
+        <v>67</v>
       </c>
       <c r="B66">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="C66">
         <v>1</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B67">
-        <v>0</v>
-      </c>
-      <c r="C67">
-        <v>18</v>
+      <c r="A67" s="24" t="s">
+        <v>122</v>
+      </c>
+      <c r="B67" s="24">
+        <v>20</v>
+      </c>
+      <c r="C67" s="24">
+        <v>20</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>92</v>
+        <v>58</v>
       </c>
       <c r="B68">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C68">
         <v>1</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B69">
-        <v>44</v>
-      </c>
-      <c r="C69">
-        <v>30</v>
+      <c r="A69" s="24" t="s">
+        <v>122</v>
+      </c>
+      <c r="B69" s="24">
+        <v>42</v>
+      </c>
+      <c r="C69" s="24">
+        <v>18</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>93</v>
+        <v>74</v>
       </c>
       <c r="B70">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="C70">
         <v>1</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B71">
-        <v>17</v>
-      </c>
-      <c r="C71">
-        <v>20</v>
+      <c r="A71" s="24" t="s">
+        <v>122</v>
+      </c>
+      <c r="B71" s="24">
+        <v>10</v>
+      </c>
+      <c r="C71" s="24">
+        <v>22</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="B72">
         <v>35</v>
@@ -2645,258 +2827,300 @@
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B73">
+      <c r="A73" s="24" t="s">
+        <v>122</v>
+      </c>
+      <c r="B73" s="24">
         <v>35</v>
       </c>
-      <c r="C73">
-        <v>52</v>
+      <c r="C73" s="24">
+        <v>33</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B74">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C74">
         <v>1</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B75">
-        <v>30</v>
-      </c>
-      <c r="C75">
-        <v>50</v>
+      <c r="A75" s="24" t="s">
+        <v>122</v>
+      </c>
+      <c r="B75" s="24">
+        <v>33</v>
+      </c>
+      <c r="C75" s="24">
+        <v>18</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>96</v>
+        <v>61</v>
       </c>
       <c r="B76">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C76">
         <v>1</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B77">
-        <v>12</v>
-      </c>
-      <c r="C77">
-        <v>24</v>
+      <c r="A77" s="24" t="s">
+        <v>122</v>
+      </c>
+      <c r="B77" s="24">
+        <v>13</v>
+      </c>
+      <c r="C77" s="24">
+        <v>30</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>97</v>
+        <v>84</v>
       </c>
       <c r="B78">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="C78">
         <v>1</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B79">
-        <v>38</v>
-      </c>
-      <c r="C79">
-        <v>43</v>
+      <c r="A79" s="24" t="s">
+        <v>122</v>
+      </c>
+      <c r="B79" s="24">
+        <v>30</v>
+      </c>
+      <c r="C79" s="24">
+        <v>31</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>98</v>
+        <v>64</v>
       </c>
       <c r="B80">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C80">
         <v>1</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B81">
-        <v>18</v>
-      </c>
-      <c r="C81">
-        <v>19</v>
+      <c r="A81" s="24" t="s">
+        <v>122</v>
+      </c>
+      <c r="B81" s="24">
+        <v>23</v>
+      </c>
+      <c r="C81" s="24">
+        <v>30</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>99</v>
+        <v>59</v>
       </c>
       <c r="B82">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="C82">
         <v>1</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B83">
-        <v>22</v>
-      </c>
-      <c r="C83">
-        <v>23</v>
+      <c r="A83" s="24" t="s">
+        <v>122</v>
+      </c>
+      <c r="B83" s="24">
+        <v>41</v>
+      </c>
+      <c r="C83" s="24">
+        <v>34</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="B84">
-        <v>47</v>
+        <v>21</v>
       </c>
       <c r="C84">
         <v>1</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B85">
-        <v>47</v>
-      </c>
-      <c r="C85">
-        <v>25</v>
+      <c r="A85" s="24" t="s">
+        <v>122</v>
+      </c>
+      <c r="B85" s="24">
+        <v>21</v>
+      </c>
+      <c r="C85" s="24">
+        <v>28</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>101</v>
+        <v>77</v>
       </c>
       <c r="B86">
-        <v>48</v>
+        <v>25</v>
       </c>
       <c r="C86">
         <v>1</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B87">
-        <v>48</v>
-      </c>
-      <c r="C87">
-        <v>21</v>
+      <c r="A87" s="24" t="s">
+        <v>122</v>
+      </c>
+      <c r="B87" s="24">
+        <v>25</v>
+      </c>
+      <c r="C87" s="24">
+        <v>19</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>102</v>
+        <v>79</v>
       </c>
       <c r="B88">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="C88">
         <v>1</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B89">
-        <v>21</v>
-      </c>
-      <c r="C89">
-        <v>31</v>
+      <c r="A89" s="24" t="s">
+        <v>122</v>
+      </c>
+      <c r="B89" s="24">
+        <v>11</v>
+      </c>
+      <c r="C89" s="24">
+        <v>22</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>55</v>
+        <v>94</v>
       </c>
       <c r="B90">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C90">
         <v>1</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B91">
-        <v>8</v>
-      </c>
-      <c r="C91">
-        <v>65</v>
+      <c r="A91" s="24" t="s">
+        <v>122</v>
+      </c>
+      <c r="B91" s="24">
+        <v>6</v>
+      </c>
+      <c r="C91" s="24">
+        <v>23</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>103</v>
+        <v>73</v>
       </c>
       <c r="B92">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C92">
         <v>1</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B93">
-        <v>28</v>
-      </c>
-      <c r="C93">
-        <v>18</v>
+      <c r="A93" s="24" t="s">
+        <v>122</v>
+      </c>
+      <c r="B93" s="24">
+        <v>24</v>
+      </c>
+      <c r="C93" s="24">
+        <v>47</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>104</v>
+        <v>44</v>
       </c>
       <c r="B94">
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="C94">
         <v>1</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B95">
-        <v>33</v>
-      </c>
-      <c r="C95">
-        <v>21</v>
+      <c r="A95" s="24" t="s">
+        <v>122</v>
+      </c>
+      <c r="B95" s="24">
+        <v>8</v>
+      </c>
+      <c r="C95" s="24">
+        <v>29</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>105</v>
+        <v>75</v>
       </c>
       <c r="B96">
-        <v>6</v>
+        <v>46</v>
       </c>
       <c r="C96">
         <v>1</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B97">
-        <v>6</v>
-      </c>
-      <c r="C97">
-        <v>25</v>
+      <c r="A97" s="24" t="s">
+        <v>122</v>
+      </c>
+      <c r="B97" s="24">
+        <v>46</v>
+      </c>
+      <c r="C97" s="24">
+        <v>32</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>106</v>
+        <v>80</v>
       </c>
       <c r="B98">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C98">
         <v>1</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B99">
-        <v>4</v>
-      </c>
-      <c r="C99">
-        <v>18</v>
+      <c r="A99" s="24" t="s">
+        <v>122</v>
+      </c>
+      <c r="B99" s="24">
+        <v>0</v>
+      </c>
+      <c r="C99" s="24">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -2908,7 +3132,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F32C965-8FEF-4583-BF5F-5B5430FD3F97}">
   <dimension ref="A1:C171"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A127" workbookViewId="0">
       <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
@@ -2918,19 +3142,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="16" t="s">
-        <v>36</v>
-      </c>
-      <c r="B1" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="C1" s="16" t="s">
-        <v>38</v>
+      <c r="A1" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="B2">
         <v>7</v>
@@ -2941,7 +3165,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="B3">
         <v>24</v>
@@ -2952,7 +3176,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="B4">
         <v>25</v>
@@ -2963,7 +3187,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="B5">
         <v>39</v>
@@ -2974,7 +3198,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="B6">
         <v>46</v>
@@ -2985,7 +3209,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="B7">
         <v>66</v>
@@ -2996,7 +3220,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="B8">
         <v>68</v>
@@ -3007,7 +3231,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="B9">
         <v>80</v>
@@ -3018,7 +3242,7 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="B10">
         <v>81</v>
@@ -3029,7 +3253,7 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="B11">
         <v>87</v>
@@ -3040,7 +3264,7 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="B12">
         <v>102</v>
@@ -3051,7 +3275,7 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="B13">
         <v>120</v>
@@ -3062,7 +3286,7 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="B14">
         <v>121</v>
@@ -3073,7 +3297,7 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="B15">
         <v>143</v>
@@ -3084,7 +3308,7 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="B16">
         <v>144</v>
@@ -3095,7 +3319,7 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="B17">
         <v>157</v>
@@ -3106,7 +3330,7 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="B18">
         <v>164</v>
@@ -3117,7 +3341,7 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="B19">
         <v>165</v>
@@ -3128,7 +3352,7 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="B20">
         <v>185</v>
@@ -3139,7 +3363,7 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="B21">
         <v>200</v>
@@ -3150,7 +3374,7 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="B22">
         <v>202</v>
@@ -3161,7 +3385,7 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="B23">
         <v>203</v>
@@ -3172,7 +3396,7 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="B24">
         <v>215</v>
@@ -3183,7 +3407,7 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="B25">
         <v>231</v>
@@ -3194,7 +3418,7 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="B26">
         <v>254</v>
@@ -3205,7 +3429,7 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="B27">
         <v>264</v>
@@ -3216,7 +3440,7 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="B28">
         <v>288</v>
@@ -3227,7 +3451,7 @@
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="B29">
         <v>291</v>
@@ -3238,7 +3462,7 @@
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="B30">
         <v>292</v>
@@ -3249,7 +3473,7 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="B31">
         <v>305</v>
@@ -3260,7 +3484,7 @@
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="B32">
         <v>310</v>
@@ -3271,7 +3495,7 @@
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="B33">
         <v>330</v>
@@ -3282,7 +3506,7 @@
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="B34">
         <v>333</v>
@@ -3293,7 +3517,7 @@
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="B35">
         <v>341</v>
@@ -3304,7 +3528,7 @@
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="B36">
         <v>350</v>
@@ -3315,7 +3539,7 @@
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="B37">
         <v>351</v>
@@ -3326,7 +3550,7 @@
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="B38">
         <v>353</v>
@@ -3337,7 +3561,7 @@
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="B39">
         <v>368</v>
@@ -3348,7 +3572,7 @@
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="B40">
         <v>390</v>
@@ -3359,7 +3583,7 @@
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="B41">
         <v>403</v>
@@ -3370,7 +3594,7 @@
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="B42">
         <v>411</v>
@@ -3381,7 +3605,7 @@
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="B43">
         <v>419</v>
@@ -3392,7 +3616,7 @@
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="B44">
         <v>435</v>
@@ -3403,7 +3627,7 @@
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="B45">
         <v>456</v>
@@ -3414,7 +3638,7 @@
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="B46">
         <v>457</v>
@@ -3425,7 +3649,7 @@
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="B47">
         <v>458</v>
@@ -3436,7 +3660,7 @@
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="B48">
         <v>475</v>
@@ -3447,7 +3671,7 @@
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="B49">
         <v>486</v>
@@ -3458,7 +3682,7 @@
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="B50">
         <v>503</v>
@@ -3469,7 +3693,7 @@
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="B51">
         <v>507</v>
@@ -3480,7 +3704,7 @@
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="B52">
         <v>515</v>
@@ -3491,7 +3715,7 @@
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="B53">
         <v>516</v>
@@ -3502,7 +3726,7 @@
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="B54">
         <v>536</v>
@@ -3513,7 +3737,7 @@
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="B55">
         <v>552</v>
@@ -3524,7 +3748,7 @@
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="B56">
         <v>572</v>
@@ -3535,7 +3759,7 @@
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="B57">
         <v>581</v>
@@ -3546,7 +3770,7 @@
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="B58">
         <v>585</v>
@@ -3557,7 +3781,7 @@
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="B59">
         <v>594</v>
@@ -3568,7 +3792,7 @@
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="B60">
         <v>603</v>
@@ -3579,7 +3803,7 @@
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="B61">
         <v>619</v>
@@ -3590,7 +3814,7 @@
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="B62">
         <v>631</v>
@@ -3601,7 +3825,7 @@
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="B63">
         <v>641</v>
@@ -3612,7 +3836,7 @@
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="B64">
         <v>655</v>
@@ -3623,7 +3847,7 @@
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="B65">
         <v>662</v>
@@ -3634,7 +3858,7 @@
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="B66">
         <v>668</v>
@@ -3645,7 +3869,7 @@
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="B67">
         <v>673</v>
@@ -3656,7 +3880,7 @@
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="B68">
         <v>689</v>
@@ -3667,7 +3891,7 @@
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="B69">
         <v>702</v>
@@ -3678,7 +3902,7 @@
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="B70">
         <v>707</v>
@@ -3689,7 +3913,7 @@
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="B71">
         <v>711</v>
@@ -3700,7 +3924,7 @@
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="B72">
         <v>714</v>
@@ -3711,7 +3935,7 @@
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="B73">
         <v>730</v>
@@ -3722,7 +3946,7 @@
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="B74">
         <v>765</v>
@@ -3733,7 +3957,7 @@
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="B75">
         <v>776</v>
@@ -3744,7 +3968,7 @@
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="B76">
         <v>777</v>
@@ -3755,7 +3979,7 @@
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="B77">
         <v>780</v>
@@ -3766,7 +3990,7 @@
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="B78">
         <v>786</v>
@@ -3777,7 +4001,7 @@
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="B79">
         <v>800</v>
@@ -3788,7 +4012,7 @@
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="B80">
         <v>801</v>
@@ -3799,7 +4023,7 @@
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="B81">
         <v>802</v>
@@ -3810,7 +4034,7 @@
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="B82">
         <v>803</v>
@@ -3821,7 +4045,7 @@
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="B83">
         <v>804</v>
@@ -3832,7 +4056,7 @@
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="B84">
         <v>805</v>
@@ -3843,7 +4067,7 @@
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="B85">
         <v>806</v>
@@ -3854,7 +4078,7 @@
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="B86">
         <v>807</v>
@@ -3865,7 +4089,7 @@
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="B87">
         <v>808</v>
@@ -3876,7 +4100,7 @@
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="B88">
         <v>809</v>
@@ -3887,7 +4111,7 @@
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="B89">
         <v>810</v>
@@ -3898,7 +4122,7 @@
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="B90">
         <v>811</v>
@@ -3909,7 +4133,7 @@
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="B91">
         <v>812</v>
@@ -3920,7 +4144,7 @@
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="B92">
         <v>813</v>
@@ -3931,7 +4155,7 @@
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="B93">
         <v>814</v>
@@ -3942,7 +4166,7 @@
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="B94">
         <v>815</v>
@@ -3953,7 +4177,7 @@
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="B95">
         <v>816</v>
@@ -3964,7 +4188,7 @@
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="B96">
         <v>817</v>
@@ -3975,7 +4199,7 @@
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="B97">
         <v>818</v>
@@ -3986,7 +4210,7 @@
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="B98">
         <v>819</v>
@@ -3997,7 +4221,7 @@
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="B99">
         <v>820</v>
@@ -4008,7 +4232,7 @@
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="B100">
         <v>821</v>
@@ -4019,7 +4243,7 @@
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="B101">
         <v>822</v>
@@ -4030,7 +4254,7 @@
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="B102">
         <v>823</v>
@@ -4041,7 +4265,7 @@
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="B103">
         <v>824</v>
@@ -4052,7 +4276,7 @@
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="B104">
         <v>825</v>
@@ -4063,7 +4287,7 @@
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="B105">
         <v>826</v>
@@ -4074,7 +4298,7 @@
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="B106">
         <v>827</v>
@@ -4085,7 +4309,7 @@
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="B107">
         <v>828</v>
@@ -4096,7 +4320,7 @@
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="B108">
         <v>829</v>
@@ -4107,7 +4331,7 @@
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="B109">
         <v>830</v>
@@ -4118,7 +4342,7 @@
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="B110">
         <v>831</v>
@@ -4129,7 +4353,7 @@
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="B111">
         <v>832</v>
@@ -4140,7 +4364,7 @@
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="B112">
         <v>833</v>
@@ -4151,7 +4375,7 @@
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="B113">
         <v>834</v>
@@ -4162,7 +4386,7 @@
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="B114">
         <v>835</v>
@@ -4173,7 +4397,7 @@
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="B115">
         <v>836</v>
@@ -4184,7 +4408,7 @@
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="B116">
         <v>837</v>
@@ -4195,7 +4419,7 @@
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="B117">
         <v>838</v>
@@ -4206,7 +4430,7 @@
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="B118">
         <v>839</v>
@@ -4217,7 +4441,7 @@
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="B119">
         <v>840</v>
@@ -4228,7 +4452,7 @@
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="B120">
         <v>841</v>
@@ -4239,7 +4463,7 @@
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="B121">
         <v>842</v>
@@ -4250,7 +4474,7 @@
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="B122">
         <v>843</v>
@@ -4261,7 +4485,7 @@
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="B123">
         <v>844</v>
@@ -4272,7 +4496,7 @@
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="B124">
         <v>845</v>
@@ -4283,7 +4507,7 @@
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="B125">
         <v>846</v>
@@ -4294,7 +4518,7 @@
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="B126">
         <v>847</v>
@@ -4305,7 +4529,7 @@
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="B127">
         <v>848</v>
@@ -4316,7 +4540,7 @@
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="B128">
         <v>0</v>
@@ -4327,7 +4551,7 @@
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="B129">
         <v>1</v>
@@ -4338,7 +4562,7 @@
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="B130">
         <v>4</v>
@@ -4349,7 +4573,7 @@
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="B131">
         <v>16</v>
@@ -4360,7 +4584,7 @@
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="B132">
         <v>28</v>
@@ -4371,7 +4595,7 @@
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="B133">
         <v>18</v>
@@ -4382,7 +4606,7 @@
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="B134">
         <v>37</v>
@@ -4393,7 +4617,7 @@
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="B135">
         <v>41</v>
@@ -4404,7 +4628,7 @@
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="B136">
         <v>5</v>
@@ -4415,7 +4639,7 @@
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="B137">
         <v>14</v>
@@ -4426,7 +4650,7 @@
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="B138">
         <v>17</v>
@@ -4437,7 +4661,7 @@
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="B139">
         <v>32</v>
@@ -4448,7 +4672,7 @@
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="B140">
         <v>33</v>
@@ -4459,7 +4683,7 @@
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="B141">
         <v>48</v>
@@ -4470,7 +4694,7 @@
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="B142">
         <v>11</v>
@@ -4481,7 +4705,7 @@
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="B143">
         <v>19</v>
@@ -4492,7 +4716,7 @@
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="B144">
         <v>22</v>
@@ -4503,7 +4727,7 @@
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="B145">
         <v>12</v>
@@ -4514,7 +4738,7 @@
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="B146">
         <v>13</v>
@@ -4525,7 +4749,7 @@
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="B147">
         <v>15</v>
@@ -4536,7 +4760,7 @@
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="B148">
         <v>6</v>
@@ -4547,7 +4771,7 @@
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="B149">
         <v>10</v>
@@ -4558,7 +4782,7 @@
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="B150">
         <v>23</v>
@@ -4569,7 +4793,7 @@
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="B151">
         <v>47</v>
@@ -4580,7 +4804,7 @@
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="B152">
         <v>42</v>
@@ -4591,7 +4815,7 @@
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="B153">
         <v>2</v>
@@ -4602,7 +4826,7 @@
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="B154">
         <v>36</v>
@@ -4613,7 +4837,7 @@
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="B155">
         <v>29</v>
@@ -4624,7 +4848,7 @@
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="B156">
         <v>34</v>
@@ -4635,7 +4859,7 @@
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="B157">
         <v>44</v>
@@ -4646,7 +4870,7 @@
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="B158">
         <v>21</v>
@@ -4657,7 +4881,7 @@
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="B159">
         <v>43</v>
@@ -4668,7 +4892,7 @@
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="B160">
         <v>20</v>
@@ -4679,7 +4903,7 @@
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="B161">
         <v>31</v>
@@ -4690,7 +4914,7 @@
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="B162">
         <v>45</v>
@@ -4701,7 +4925,7 @@
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="B163">
         <v>9</v>
@@ -4712,7 +4936,7 @@
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="B164">
         <v>27</v>
@@ -4723,7 +4947,7 @@
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="B165">
         <v>3</v>
@@ -4734,7 +4958,7 @@
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="B166">
         <v>38</v>
@@ -4745,7 +4969,7 @@
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="B167">
         <v>40</v>
@@ -4756,7 +4980,7 @@
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="B168">
         <v>30</v>
@@ -4767,7 +4991,7 @@
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="B169">
         <v>35</v>
@@ -4778,7 +5002,7 @@
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="B170">
         <v>8</v>
@@ -4789,7 +5013,7 @@
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="B171">
         <v>26</v>
@@ -4805,10 +5029,113 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B87E6DD-EC3F-4247-8493-4197DAF7EE9E}">
+  <dimension ref="A1:A17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16.7109375" style="23" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="22" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" s="23">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" s="23">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" s="23">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" s="23">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" s="23">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" s="23">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" s="23">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" s="23">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" s="23">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" s="23">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" s="23">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13" s="23">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14" s="23">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15" s="23">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A16" s="23">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" s="23">
+        <v>799</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9CDB002C-9EDC-4EE4-8FE7-713EEBD0438C}">
   <dimension ref="A1:B31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="A35" sqref="A35"/>
     </sheetView>
   </sheetViews>
@@ -4819,26 +5146,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="16" t="s">
-        <v>111</v>
-      </c>
-      <c r="B1" s="16" t="s">
-        <v>112</v>
+      <c r="A1" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A2" s="21" t="s">
-        <v>110</v>
+      <c r="A2" s="14" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A15" s="21" t="s">
-        <v>113</v>
+      <c r="A15" s="14" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A31" s="15" t="s">
-        <v>114</v>
+      <c r="A31" s="11" t="s">
+        <v>102</v>
       </c>
     </row>
   </sheetData>

--- a/test_report.xlsx
+++ b/test_report.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://intel-my.sharepoint.com/personal/yoni_zadik_intel_com/Documents/Desktop/Yoni/PaloAlto/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="449" documentId="11_F25DC773A252ABDACC1048C4E15B41685BDE58E8" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{A408EBC2-1ED2-457F-A0E1-174ECD70AB1A}"/>
+  <xr:revisionPtr revIDLastSave="453" documentId="11_F25DC773A252ABDACC1048C4E15B41685BDE58E8" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{6F03F865-7CEE-42FF-AB46-B826E7800343}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="375" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="376" uniqueCount="125">
   <si>
     <t>Priority</t>
   </si>
@@ -96,9 +96,6 @@
   </si>
   <si>
     <t>All ID's and names should have no empty or null values, each ID and name sould not be associated with more that one companion.</t>
-  </si>
-  <si>
-    <t>Test will also self check if new unique name-ID pairs are are pulled from DB, and check for environmental issues.</t>
   </si>
   <si>
     <t>Each test group can be excuted seperatly by py.test framwork or in one global run.</t>
@@ -491,6 +488,12 @@
       </rPr>
       <t>:  /home/yonizadi/playerApi_files1</t>
     </r>
+  </si>
+  <si>
+    <t>Test will also self check if new unique name-ID pairs are are pulled from DB, following ID numbers and check for environmental issues.</t>
+  </si>
+  <si>
+    <t>The test will keep running over new pages until 100 pages in a row don't create new name:id pairs</t>
   </si>
 </sst>
 </file>
@@ -750,6 +753,13 @@
     <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -771,13 +781,6 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Bad" xfId="2" builtinId="27"/>
@@ -1286,10 +1289,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H16"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1303,246 +1306,256 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="17"/>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="20"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="16"/>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="17"/>
+      <c r="B2" s="19"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="20"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="18" t="s">
+      <c r="A3" s="21" t="s">
+        <v>123</v>
+      </c>
+      <c r="B3" s="19"/>
+      <c r="C3" s="19"/>
+      <c r="D3" s="19"/>
+      <c r="E3" s="20"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="B3" s="16"/>
-      <c r="C3" s="16"/>
-      <c r="D3" s="16"/>
-      <c r="E3" s="17"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="B4" s="16"/>
-      <c r="C4" s="16"/>
-      <c r="D4" s="16"/>
-      <c r="E4" s="17"/>
+      <c r="B4" s="19"/>
+      <c r="C4" s="19"/>
+      <c r="D4" s="19"/>
+      <c r="E4" s="20"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="21" t="s">
+        <v>124</v>
+      </c>
+      <c r="B5" s="19"/>
+      <c r="C5" s="19"/>
+      <c r="D5" s="19"/>
+      <c r="E5" s="20"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B6" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="E5" s="7" t="s">
+      <c r="C6" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="E6" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="F5" s="7" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="D6" s="1">
-        <v>20</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>115</v>
+      <c r="F6" s="7" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>6</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D7" s="1">
-        <v>49</v>
+        <v>20</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>7</v>
+        <v>2</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>6</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D8" s="1">
-        <v>170</v>
+        <v>49</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>111</v>
+        <v>3</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="D9" s="1">
-        <v>0</v>
+        <v>170</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
       <c r="D10" s="1">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>118</v>
+        <v>17</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>11</v>
+        <v>111</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>7</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="D11" s="1">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>15</v>
+        <v>117</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>11</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D12" s="1">
         <v>0</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>11</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D13" s="1">
         <v>0</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G13" s="9"/>
-      <c r="H13" s="8"/>
+        <v>14</v>
+      </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="D14" s="1">
+        <v>0</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G14" s="9"/>
+      <c r="H14" s="8"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B14" s="10" t="s">
+      <c r="B15" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D15" s="1"/>
+      <c r="E15" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C14" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D14" s="1"/>
-      <c r="E14" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="19" t="s">
-        <v>123</v>
-      </c>
-      <c r="B16" s="20"/>
-      <c r="C16" s="20"/>
-      <c r="D16" s="20"/>
-      <c r="E16" s="21"/>
-      <c r="F16" s="13"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="22" t="s">
+        <v>122</v>
+      </c>
+      <c r="B17" s="23"/>
+      <c r="C17" s="23"/>
+      <c r="D17" s="23"/>
+      <c r="E17" s="24"/>
+      <c r="F17" s="13"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="6">
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="A3:E3"/>
+    <mergeCell ref="A5:E5"/>
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="A17:E17"/>
     <mergeCell ref="A4:E4"/>
-    <mergeCell ref="A2:E2"/>
-    <mergeCell ref="A16:E16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1565,18 +1578,18 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B1" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1" s="12" t="s">
         <v>28</v>
-      </c>
-      <c r="C1" s="12" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B2">
         <v>419</v>
@@ -1587,7 +1600,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B3">
         <v>451</v>
@@ -1598,7 +1611,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B4">
         <v>19</v>
@@ -1609,7 +1622,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B5">
         <v>31</v>
@@ -1620,7 +1633,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B6">
         <v>346</v>
@@ -1631,7 +1644,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B7">
         <v>446</v>
@@ -1642,7 +1655,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B8">
         <v>365</v>
@@ -1653,7 +1666,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B9">
         <v>655</v>
@@ -1664,7 +1677,7 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B10">
         <v>397</v>
@@ -1675,7 +1688,7 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B11">
         <v>738</v>
@@ -1686,7 +1699,7 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B12">
         <v>78</v>
@@ -1697,7 +1710,7 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B13">
         <v>657</v>
@@ -1708,7 +1721,7 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B14">
         <v>180</v>
@@ -1719,7 +1732,7 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B15">
         <v>265</v>
@@ -1730,7 +1743,7 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B16">
         <v>283</v>
@@ -1741,7 +1754,7 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B17">
         <v>519</v>
@@ -1752,7 +1765,7 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B18">
         <v>173</v>
@@ -1763,7 +1776,7 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B19">
         <v>469</v>
@@ -1774,7 +1787,7 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B20">
         <v>445</v>
@@ -1785,7 +1798,7 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B21">
         <v>521</v>
@@ -1796,7 +1809,7 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B22">
         <v>1</v>
@@ -1807,7 +1820,7 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B23">
         <v>681</v>
@@ -1818,7 +1831,7 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B24">
         <v>428</v>
@@ -1829,7 +1842,7 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B25">
         <v>524</v>
@@ -1840,7 +1853,7 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B26">
         <v>50</v>
@@ -1851,7 +1864,7 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B27">
         <v>740</v>
@@ -1862,7 +1875,7 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B28">
         <v>8</v>
@@ -1873,7 +1886,7 @@
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B29">
         <v>74</v>
@@ -1884,7 +1897,7 @@
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B30">
         <v>377</v>
@@ -1895,7 +1908,7 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B31">
         <v>379</v>
@@ -1906,7 +1919,7 @@
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B32">
         <v>355</v>
@@ -1917,7 +1930,7 @@
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B33">
         <v>382</v>
@@ -1928,7 +1941,7 @@
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B34">
         <v>132</v>
@@ -1939,7 +1952,7 @@
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B35">
         <v>726</v>
@@ -1950,7 +1963,7 @@
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B36">
         <v>85</v>
@@ -1961,7 +1974,7 @@
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B37">
         <v>219</v>
@@ -1972,7 +1985,7 @@
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B38">
         <v>228</v>
@@ -1983,7 +1996,7 @@
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B39">
         <v>471</v>
@@ -1994,7 +2007,7 @@
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B40">
         <v>40</v>
@@ -2005,7 +2018,7 @@
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B41">
         <v>185</v>
@@ -2036,18 +2049,18 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C1" s="12" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B2">
         <v>28</v>
@@ -2057,19 +2070,19 @@
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="24" t="s">
-        <v>122</v>
-      </c>
-      <c r="B3" s="24">
+      <c r="A3" s="17" t="s">
+        <v>121</v>
+      </c>
+      <c r="B3" s="17">
         <v>28</v>
       </c>
-      <c r="C3" s="24">
+      <c r="C3" s="17">
         <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B4">
         <v>17</v>
@@ -2079,19 +2092,19 @@
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="24" t="s">
-        <v>122</v>
-      </c>
-      <c r="B5" s="24">
-        <v>17</v>
-      </c>
-      <c r="C5" s="24">
+      <c r="A5" s="17" t="s">
+        <v>121</v>
+      </c>
+      <c r="B5" s="17">
+        <v>17</v>
+      </c>
+      <c r="C5" s="17">
         <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B6">
         <v>22</v>
@@ -2101,19 +2114,19 @@
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="24" t="s">
-        <v>122</v>
-      </c>
-      <c r="B7" s="24">
+      <c r="A7" s="17" t="s">
+        <v>121</v>
+      </c>
+      <c r="B7" s="17">
         <v>22</v>
       </c>
-      <c r="C7" s="24">
+      <c r="C7" s="17">
         <v>24</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B8">
         <v>47</v>
@@ -2123,19 +2136,19 @@
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="24" t="s">
-        <v>122</v>
-      </c>
-      <c r="B9" s="24">
+      <c r="A9" s="17" t="s">
+        <v>121</v>
+      </c>
+      <c r="B9" s="17">
         <v>47</v>
       </c>
-      <c r="C9" s="24">
+      <c r="C9" s="17">
         <v>33</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B10">
         <v>7</v>
@@ -2145,19 +2158,19 @@
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="24" t="s">
-        <v>56</v>
-      </c>
-      <c r="B11" s="24">
+      <c r="A11" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="B11" s="17">
         <v>7</v>
       </c>
-      <c r="C11" s="24">
+      <c r="C11" s="17">
         <v>18</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B12">
         <v>43</v>
@@ -2167,19 +2180,19 @@
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="24" t="s">
-        <v>122</v>
-      </c>
-      <c r="B13" s="24">
+      <c r="A13" s="17" t="s">
+        <v>121</v>
+      </c>
+      <c r="B13" s="17">
         <v>43</v>
       </c>
-      <c r="C13" s="24">
+      <c r="C13" s="17">
         <v>24</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B14">
         <v>1</v>
@@ -2189,19 +2202,19 @@
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="24" t="s">
-        <v>122</v>
-      </c>
-      <c r="B15" s="24">
-        <v>1</v>
-      </c>
-      <c r="C15" s="24">
+      <c r="A15" s="17" t="s">
+        <v>121</v>
+      </c>
+      <c r="B15" s="17">
+        <v>1</v>
+      </c>
+      <c r="C15" s="17">
         <v>35</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B16">
         <v>5</v>
@@ -2211,19 +2224,19 @@
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="24" t="s">
-        <v>54</v>
-      </c>
-      <c r="B17" s="24">
+      <c r="A17" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="B17" s="17">
         <v>5</v>
       </c>
-      <c r="C17" s="24">
+      <c r="C17" s="17">
         <v>18</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B18">
         <v>32</v>
@@ -2233,19 +2246,19 @@
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="24" t="s">
-        <v>122</v>
-      </c>
-      <c r="B19" s="24">
+      <c r="A19" s="17" t="s">
+        <v>121</v>
+      </c>
+      <c r="B19" s="17">
         <v>32</v>
       </c>
-      <c r="C19" s="24">
+      <c r="C19" s="17">
         <v>19</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B20">
         <v>34</v>
@@ -2255,19 +2268,19 @@
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="24" t="s">
-        <v>122</v>
-      </c>
-      <c r="B21" s="24">
+      <c r="A21" s="17" t="s">
+        <v>121</v>
+      </c>
+      <c r="B21" s="17">
         <v>34</v>
       </c>
-      <c r="C21" s="24">
+      <c r="C21" s="17">
         <v>21</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B22">
         <v>36</v>
@@ -2277,19 +2290,19 @@
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="24" t="s">
-        <v>122</v>
-      </c>
-      <c r="B23" s="24">
+      <c r="A23" s="17" t="s">
+        <v>121</v>
+      </c>
+      <c r="B23" s="17">
         <v>36</v>
       </c>
-      <c r="C23" s="24">
+      <c r="C23" s="17">
         <v>27</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B24">
         <v>39</v>
@@ -2299,19 +2312,19 @@
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="24" t="s">
-        <v>122</v>
-      </c>
-      <c r="B25" s="24">
+      <c r="A25" s="17" t="s">
+        <v>121</v>
+      </c>
+      <c r="B25" s="17">
         <v>39</v>
       </c>
-      <c r="C25" s="24">
+      <c r="C25" s="17">
         <v>56</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B26">
         <v>4</v>
@@ -2321,19 +2334,19 @@
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="24" t="s">
-        <v>95</v>
-      </c>
-      <c r="B27" s="24">
+      <c r="A27" s="17" t="s">
+        <v>94</v>
+      </c>
+      <c r="B27" s="17">
         <v>4</v>
       </c>
-      <c r="C27" s="24">
+      <c r="C27" s="17">
         <v>18</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B28">
         <v>40</v>
@@ -2343,19 +2356,19 @@
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" s="24" t="s">
-        <v>122</v>
-      </c>
-      <c r="B29" s="24">
+      <c r="A29" s="17" t="s">
+        <v>121</v>
+      </c>
+      <c r="B29" s="17">
         <v>40</v>
       </c>
-      <c r="C29" s="24">
+      <c r="C29" s="17">
         <v>42</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B30">
         <v>45</v>
@@ -2365,19 +2378,19 @@
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" s="24" t="s">
-        <v>122</v>
-      </c>
-      <c r="B31" s="24">
+      <c r="A31" s="17" t="s">
+        <v>121</v>
+      </c>
+      <c r="B31" s="17">
         <v>45</v>
       </c>
-      <c r="C31" s="24">
+      <c r="C31" s="17">
         <v>20</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B32">
         <v>29</v>
@@ -2387,19 +2400,19 @@
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" s="24" t="s">
-        <v>122</v>
-      </c>
-      <c r="B33" s="24">
-        <v>29</v>
-      </c>
-      <c r="C33" s="24">
+      <c r="A33" s="17" t="s">
+        <v>121</v>
+      </c>
+      <c r="B33" s="17">
+        <v>29</v>
+      </c>
+      <c r="C33" s="17">
         <v>18</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B34">
         <v>3</v>
@@ -2409,19 +2422,19 @@
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" s="24" t="s">
-        <v>122</v>
-      </c>
-      <c r="B35" s="24">
+      <c r="A35" s="17" t="s">
+        <v>121</v>
+      </c>
+      <c r="B35" s="17">
         <v>3</v>
       </c>
-      <c r="C35" s="24">
+      <c r="C35" s="17">
         <v>20</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B36">
         <v>38</v>
@@ -2431,19 +2444,19 @@
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" s="24" t="s">
-        <v>122</v>
-      </c>
-      <c r="B37" s="24">
+      <c r="A37" s="17" t="s">
+        <v>121</v>
+      </c>
+      <c r="B37" s="17">
         <v>38</v>
       </c>
-      <c r="C37" s="24">
+      <c r="C37" s="17">
         <v>31</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B38">
         <v>15</v>
@@ -2453,19 +2466,19 @@
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" s="24" t="s">
-        <v>122</v>
-      </c>
-      <c r="B39" s="24">
+      <c r="A39" s="17" t="s">
+        <v>121</v>
+      </c>
+      <c r="B39" s="17">
         <v>15</v>
       </c>
-      <c r="C39" s="24">
+      <c r="C39" s="17">
         <v>21</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B40">
         <v>37</v>
@@ -2475,19 +2488,19 @@
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" s="24" t="s">
-        <v>76</v>
-      </c>
-      <c r="B41" s="24">
+      <c r="A41" s="17" t="s">
+        <v>75</v>
+      </c>
+      <c r="B41" s="17">
         <v>37</v>
       </c>
-      <c r="C41" s="24">
+      <c r="C41" s="17">
         <v>18</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B42">
         <v>16</v>
@@ -2497,19 +2510,19 @@
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A43" s="24" t="s">
-        <v>122</v>
-      </c>
-      <c r="B43" s="24">
+      <c r="A43" s="17" t="s">
+        <v>121</v>
+      </c>
+      <c r="B43" s="17">
         <v>16</v>
       </c>
-      <c r="C43" s="24">
+      <c r="C43" s="17">
         <v>25</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B44">
         <v>9</v>
@@ -2519,19 +2532,19 @@
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A45" s="24" t="s">
-        <v>122</v>
-      </c>
-      <c r="B45" s="24">
+      <c r="A45" s="17" t="s">
+        <v>121</v>
+      </c>
+      <c r="B45" s="17">
         <v>9</v>
       </c>
-      <c r="C45" s="24">
+      <c r="C45" s="17">
         <v>26</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B46">
         <v>2</v>
@@ -2541,19 +2554,19 @@
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A47" s="24" t="s">
-        <v>122</v>
-      </c>
-      <c r="B47" s="24">
+      <c r="A47" s="17" t="s">
+        <v>121</v>
+      </c>
+      <c r="B47" s="17">
         <v>2</v>
       </c>
-      <c r="C47" s="24">
+      <c r="C47" s="17">
         <v>40</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B48">
         <v>18</v>
@@ -2563,19 +2576,19 @@
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A49" s="24" t="s">
-        <v>122</v>
-      </c>
-      <c r="B49" s="24">
+      <c r="A49" s="17" t="s">
+        <v>121</v>
+      </c>
+      <c r="B49" s="17">
         <v>18</v>
       </c>
-      <c r="C49" s="24">
+      <c r="C49" s="17">
         <v>37</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B50">
         <v>31</v>
@@ -2585,19 +2598,19 @@
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A51" s="24" t="s">
-        <v>122</v>
-      </c>
-      <c r="B51" s="24">
+      <c r="A51" s="17" t="s">
+        <v>121</v>
+      </c>
+      <c r="B51" s="17">
         <v>31</v>
       </c>
-      <c r="C51" s="24">
+      <c r="C51" s="17">
         <v>20</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B52">
         <v>44</v>
@@ -2607,19 +2620,19 @@
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A53" s="24" t="s">
-        <v>122</v>
-      </c>
-      <c r="B53" s="24">
+      <c r="A53" s="17" t="s">
+        <v>121</v>
+      </c>
+      <c r="B53" s="17">
         <v>44</v>
       </c>
-      <c r="C53" s="24">
+      <c r="C53" s="17">
         <v>38</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B54">
         <v>12</v>
@@ -2629,19 +2642,19 @@
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A55" s="24" t="s">
-        <v>85</v>
-      </c>
-      <c r="B55" s="24">
+      <c r="A55" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="B55" s="17">
         <v>12</v>
       </c>
-      <c r="C55" s="24">
+      <c r="C55" s="17">
         <v>18</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B56">
         <v>27</v>
@@ -2651,19 +2664,19 @@
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A57" s="24" t="s">
-        <v>122</v>
-      </c>
-      <c r="B57" s="24">
+      <c r="A57" s="17" t="s">
+        <v>121</v>
+      </c>
+      <c r="B57" s="17">
         <v>27</v>
       </c>
-      <c r="C57" s="24">
+      <c r="C57" s="17">
         <v>25</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B58">
         <v>14</v>
@@ -2673,19 +2686,19 @@
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A59" s="24" t="s">
-        <v>122</v>
-      </c>
-      <c r="B59" s="24">
+      <c r="A59" s="17" t="s">
+        <v>121</v>
+      </c>
+      <c r="B59" s="17">
         <v>14</v>
       </c>
-      <c r="C59" s="24">
+      <c r="C59" s="17">
         <v>18</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B60">
         <v>19</v>
@@ -2695,19 +2708,19 @@
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A61" s="24" t="s">
-        <v>122</v>
-      </c>
-      <c r="B61" s="24">
+      <c r="A61" s="17" t="s">
+        <v>121</v>
+      </c>
+      <c r="B61" s="17">
         <v>19</v>
       </c>
-      <c r="C61" s="24">
+      <c r="C61" s="17">
         <v>24</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B62">
         <v>48</v>
@@ -2717,19 +2730,19 @@
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A63" s="24" t="s">
-        <v>122</v>
-      </c>
-      <c r="B63" s="24">
+      <c r="A63" s="17" t="s">
+        <v>121</v>
+      </c>
+      <c r="B63" s="17">
         <v>48</v>
       </c>
-      <c r="C63" s="24">
+      <c r="C63" s="17">
         <v>33</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B64">
         <v>26</v>
@@ -2739,19 +2752,19 @@
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A65" s="24" t="s">
-        <v>122</v>
-      </c>
-      <c r="B65" s="24">
+      <c r="A65" s="17" t="s">
+        <v>121</v>
+      </c>
+      <c r="B65" s="17">
         <v>26</v>
       </c>
-      <c r="C65" s="24">
+      <c r="C65" s="17">
         <v>39</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B66">
         <v>20</v>
@@ -2761,19 +2774,19 @@
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A67" s="24" t="s">
-        <v>122</v>
-      </c>
-      <c r="B67" s="24">
+      <c r="A67" s="17" t="s">
+        <v>121</v>
+      </c>
+      <c r="B67" s="17">
         <v>20</v>
       </c>
-      <c r="C67" s="24">
+      <c r="C67" s="17">
         <v>20</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B68">
         <v>42</v>
@@ -2783,19 +2796,19 @@
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A69" s="24" t="s">
-        <v>122</v>
-      </c>
-      <c r="B69" s="24">
+      <c r="A69" s="17" t="s">
+        <v>121</v>
+      </c>
+      <c r="B69" s="17">
         <v>42</v>
       </c>
-      <c r="C69" s="24">
+      <c r="C69" s="17">
         <v>18</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B70">
         <v>10</v>
@@ -2805,19 +2818,19 @@
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A71" s="24" t="s">
-        <v>122</v>
-      </c>
-      <c r="B71" s="24">
+      <c r="A71" s="17" t="s">
+        <v>121</v>
+      </c>
+      <c r="B71" s="17">
         <v>10</v>
       </c>
-      <c r="C71" s="24">
+      <c r="C71" s="17">
         <v>22</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B72">
         <v>35</v>
@@ -2827,19 +2840,19 @@
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A73" s="24" t="s">
-        <v>122</v>
-      </c>
-      <c r="B73" s="24">
+      <c r="A73" s="17" t="s">
+        <v>121</v>
+      </c>
+      <c r="B73" s="17">
         <v>35</v>
       </c>
-      <c r="C73" s="24">
+      <c r="C73" s="17">
         <v>33</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B74">
         <v>33</v>
@@ -2849,19 +2862,19 @@
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A75" s="24" t="s">
-        <v>122</v>
-      </c>
-      <c r="B75" s="24">
+      <c r="A75" s="17" t="s">
+        <v>121</v>
+      </c>
+      <c r="B75" s="17">
         <v>33</v>
       </c>
-      <c r="C75" s="24">
+      <c r="C75" s="17">
         <v>18</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B76">
         <v>13</v>
@@ -2871,19 +2884,19 @@
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A77" s="24" t="s">
-        <v>122</v>
-      </c>
-      <c r="B77" s="24">
+      <c r="A77" s="17" t="s">
+        <v>121</v>
+      </c>
+      <c r="B77" s="17">
         <v>13</v>
       </c>
-      <c r="C77" s="24">
+      <c r="C77" s="17">
         <v>30</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B78">
         <v>30</v>
@@ -2893,19 +2906,19 @@
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A79" s="24" t="s">
-        <v>122</v>
-      </c>
-      <c r="B79" s="24">
-        <v>30</v>
-      </c>
-      <c r="C79" s="24">
+      <c r="A79" s="17" t="s">
+        <v>121</v>
+      </c>
+      <c r="B79" s="17">
+        <v>30</v>
+      </c>
+      <c r="C79" s="17">
         <v>31</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B80">
         <v>23</v>
@@ -2915,19 +2928,19 @@
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A81" s="24" t="s">
-        <v>122</v>
-      </c>
-      <c r="B81" s="24">
+      <c r="A81" s="17" t="s">
+        <v>121</v>
+      </c>
+      <c r="B81" s="17">
         <v>23</v>
       </c>
-      <c r="C81" s="24">
+      <c r="C81" s="17">
         <v>30</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B82">
         <v>41</v>
@@ -2937,19 +2950,19 @@
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A83" s="24" t="s">
-        <v>122</v>
-      </c>
-      <c r="B83" s="24">
+      <c r="A83" s="17" t="s">
+        <v>121</v>
+      </c>
+      <c r="B83" s="17">
         <v>41</v>
       </c>
-      <c r="C83" s="24">
+      <c r="C83" s="17">
         <v>34</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B84">
         <v>21</v>
@@ -2959,19 +2972,19 @@
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A85" s="24" t="s">
-        <v>122</v>
-      </c>
-      <c r="B85" s="24">
+      <c r="A85" s="17" t="s">
+        <v>121</v>
+      </c>
+      <c r="B85" s="17">
         <v>21</v>
       </c>
-      <c r="C85" s="24">
+      <c r="C85" s="17">
         <v>28</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B86">
         <v>25</v>
@@ -2981,19 +2994,19 @@
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A87" s="24" t="s">
-        <v>122</v>
-      </c>
-      <c r="B87" s="24">
+      <c r="A87" s="17" t="s">
+        <v>121</v>
+      </c>
+      <c r="B87" s="17">
         <v>25</v>
       </c>
-      <c r="C87" s="24">
+      <c r="C87" s="17">
         <v>19</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B88">
         <v>11</v>
@@ -3003,19 +3016,19 @@
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A89" s="24" t="s">
-        <v>122</v>
-      </c>
-      <c r="B89" s="24">
+      <c r="A89" s="17" t="s">
+        <v>121</v>
+      </c>
+      <c r="B89" s="17">
         <v>11</v>
       </c>
-      <c r="C89" s="24">
+      <c r="C89" s="17">
         <v>22</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B90">
         <v>6</v>
@@ -3025,19 +3038,19 @@
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A91" s="24" t="s">
-        <v>122</v>
-      </c>
-      <c r="B91" s="24">
+      <c r="A91" s="17" t="s">
+        <v>121</v>
+      </c>
+      <c r="B91" s="17">
         <v>6</v>
       </c>
-      <c r="C91" s="24">
+      <c r="C91" s="17">
         <v>23</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B92">
         <v>24</v>
@@ -3047,19 +3060,19 @@
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A93" s="24" t="s">
-        <v>122</v>
-      </c>
-      <c r="B93" s="24">
+      <c r="A93" s="17" t="s">
+        <v>121</v>
+      </c>
+      <c r="B93" s="17">
         <v>24</v>
       </c>
-      <c r="C93" s="24">
+      <c r="C93" s="17">
         <v>47</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B94">
         <v>8</v>
@@ -3069,19 +3082,19 @@
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A95" s="24" t="s">
-        <v>122</v>
-      </c>
-      <c r="B95" s="24">
+      <c r="A95" s="17" t="s">
+        <v>121</v>
+      </c>
+      <c r="B95" s="17">
         <v>8</v>
       </c>
-      <c r="C95" s="24">
+      <c r="C95" s="17">
         <v>29</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B96">
         <v>46</v>
@@ -3091,19 +3104,19 @@
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A97" s="24" t="s">
-        <v>122</v>
-      </c>
-      <c r="B97" s="24">
+      <c r="A97" s="17" t="s">
+        <v>121</v>
+      </c>
+      <c r="B97" s="17">
         <v>46</v>
       </c>
-      <c r="C97" s="24">
+      <c r="C97" s="17">
         <v>32</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B98">
         <v>0</v>
@@ -3113,13 +3126,13 @@
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A99" s="24" t="s">
-        <v>122</v>
-      </c>
-      <c r="B99" s="24">
+      <c r="A99" s="17" t="s">
+        <v>121</v>
+      </c>
+      <c r="B99" s="17">
         <v>0</v>
       </c>
-      <c r="C99" s="24">
+      <c r="C99" s="17">
         <v>22</v>
       </c>
     </row>
@@ -3143,18 +3156,18 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="C1" s="12" t="s">
         <v>28</v>
-      </c>
-      <c r="C1" s="12" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B2">
         <v>7</v>
@@ -3165,7 +3178,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B3">
         <v>24</v>
@@ -3176,7 +3189,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B4">
         <v>25</v>
@@ -3187,7 +3200,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B5">
         <v>39</v>
@@ -3198,7 +3211,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B6">
         <v>46</v>
@@ -3209,7 +3222,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B7">
         <v>66</v>
@@ -3220,7 +3233,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B8">
         <v>68</v>
@@ -3231,7 +3244,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B9">
         <v>80</v>
@@ -3242,7 +3255,7 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B10">
         <v>81</v>
@@ -3253,7 +3266,7 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B11">
         <v>87</v>
@@ -3264,7 +3277,7 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B12">
         <v>102</v>
@@ -3275,7 +3288,7 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B13">
         <v>120</v>
@@ -3286,7 +3299,7 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B14">
         <v>121</v>
@@ -3297,7 +3310,7 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B15">
         <v>143</v>
@@ -3308,7 +3321,7 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B16">
         <v>144</v>
@@ -3319,7 +3332,7 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B17">
         <v>157</v>
@@ -3330,7 +3343,7 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B18">
         <v>164</v>
@@ -3341,7 +3354,7 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B19">
         <v>165</v>
@@ -3352,7 +3365,7 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B20">
         <v>185</v>
@@ -3363,7 +3376,7 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B21">
         <v>200</v>
@@ -3374,7 +3387,7 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B22">
         <v>202</v>
@@ -3385,7 +3398,7 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B23">
         <v>203</v>
@@ -3396,7 +3409,7 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B24">
         <v>215</v>
@@ -3407,7 +3420,7 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B25">
         <v>231</v>
@@ -3418,7 +3431,7 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B26">
         <v>254</v>
@@ -3429,7 +3442,7 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B27">
         <v>264</v>
@@ -3440,7 +3453,7 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B28">
         <v>288</v>
@@ -3451,7 +3464,7 @@
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B29">
         <v>291</v>
@@ -3462,7 +3475,7 @@
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B30">
         <v>292</v>
@@ -3473,7 +3486,7 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B31">
         <v>305</v>
@@ -3484,7 +3497,7 @@
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B32">
         <v>310</v>
@@ -3495,7 +3508,7 @@
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B33">
         <v>330</v>
@@ -3506,7 +3519,7 @@
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B34">
         <v>333</v>
@@ -3517,7 +3530,7 @@
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B35">
         <v>341</v>
@@ -3528,7 +3541,7 @@
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B36">
         <v>350</v>
@@ -3539,7 +3552,7 @@
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B37">
         <v>351</v>
@@ -3550,7 +3563,7 @@
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B38">
         <v>353</v>
@@ -3561,7 +3574,7 @@
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B39">
         <v>368</v>
@@ -3572,7 +3585,7 @@
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B40">
         <v>390</v>
@@ -3583,7 +3596,7 @@
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B41">
         <v>403</v>
@@ -3594,7 +3607,7 @@
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B42">
         <v>411</v>
@@ -3605,7 +3618,7 @@
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B43">
         <v>419</v>
@@ -3616,7 +3629,7 @@
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B44">
         <v>435</v>
@@ -3627,7 +3640,7 @@
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B45">
         <v>456</v>
@@ -3638,7 +3651,7 @@
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B46">
         <v>457</v>
@@ -3649,7 +3662,7 @@
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B47">
         <v>458</v>
@@ -3660,7 +3673,7 @@
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B48">
         <v>475</v>
@@ -3671,7 +3684,7 @@
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B49">
         <v>486</v>
@@ -3682,7 +3695,7 @@
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B50">
         <v>503</v>
@@ -3693,7 +3706,7 @@
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B51">
         <v>507</v>
@@ -3704,7 +3717,7 @@
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B52">
         <v>515</v>
@@ -3715,7 +3728,7 @@
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B53">
         <v>516</v>
@@ -3726,7 +3739,7 @@
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B54">
         <v>536</v>
@@ -3737,7 +3750,7 @@
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B55">
         <v>552</v>
@@ -3748,7 +3761,7 @@
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B56">
         <v>572</v>
@@ -3759,7 +3772,7 @@
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B57">
         <v>581</v>
@@ -3770,7 +3783,7 @@
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B58">
         <v>585</v>
@@ -3781,7 +3794,7 @@
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B59">
         <v>594</v>
@@ -3792,7 +3805,7 @@
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B60">
         <v>603</v>
@@ -3803,7 +3816,7 @@
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B61">
         <v>619</v>
@@ -3814,7 +3827,7 @@
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B62">
         <v>631</v>
@@ -3825,7 +3838,7 @@
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B63">
         <v>641</v>
@@ -3836,7 +3849,7 @@
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B64">
         <v>655</v>
@@ -3847,7 +3860,7 @@
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B65">
         <v>662</v>
@@ -3858,7 +3871,7 @@
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B66">
         <v>668</v>
@@ -3869,7 +3882,7 @@
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B67">
         <v>673</v>
@@ -3880,7 +3893,7 @@
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B68">
         <v>689</v>
@@ -3891,7 +3904,7 @@
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B69">
         <v>702</v>
@@ -3902,7 +3915,7 @@
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B70">
         <v>707</v>
@@ -3913,7 +3926,7 @@
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B71">
         <v>711</v>
@@ -3924,7 +3937,7 @@
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B72">
         <v>714</v>
@@ -3935,7 +3948,7 @@
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B73">
         <v>730</v>
@@ -3946,7 +3959,7 @@
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B74">
         <v>765</v>
@@ -3957,7 +3970,7 @@
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B75">
         <v>776</v>
@@ -3968,7 +3981,7 @@
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B76">
         <v>777</v>
@@ -3979,7 +3992,7 @@
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B77">
         <v>780</v>
@@ -3990,7 +4003,7 @@
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B78">
         <v>786</v>
@@ -4001,7 +4014,7 @@
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B79">
         <v>800</v>
@@ -4012,7 +4025,7 @@
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B80">
         <v>801</v>
@@ -4023,7 +4036,7 @@
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B81">
         <v>802</v>
@@ -4034,7 +4047,7 @@
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B82">
         <v>803</v>
@@ -4045,7 +4058,7 @@
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B83">
         <v>804</v>
@@ -4056,7 +4069,7 @@
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B84">
         <v>805</v>
@@ -4067,7 +4080,7 @@
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B85">
         <v>806</v>
@@ -4078,7 +4091,7 @@
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B86">
         <v>807</v>
@@ -4089,7 +4102,7 @@
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B87">
         <v>808</v>
@@ -4100,7 +4113,7 @@
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B88">
         <v>809</v>
@@ -4111,7 +4124,7 @@
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B89">
         <v>810</v>
@@ -4122,7 +4135,7 @@
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B90">
         <v>811</v>
@@ -4133,7 +4146,7 @@
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B91">
         <v>812</v>
@@ -4144,7 +4157,7 @@
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B92">
         <v>813</v>
@@ -4155,7 +4168,7 @@
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B93">
         <v>814</v>
@@ -4166,7 +4179,7 @@
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B94">
         <v>815</v>
@@ -4177,7 +4190,7 @@
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B95">
         <v>816</v>
@@ -4188,7 +4201,7 @@
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B96">
         <v>817</v>
@@ -4199,7 +4212,7 @@
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B97">
         <v>818</v>
@@ -4210,7 +4223,7 @@
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B98">
         <v>819</v>
@@ -4221,7 +4234,7 @@
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B99">
         <v>820</v>
@@ -4232,7 +4245,7 @@
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B100">
         <v>821</v>
@@ -4243,7 +4256,7 @@
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B101">
         <v>822</v>
@@ -4254,7 +4267,7 @@
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B102">
         <v>823</v>
@@ -4265,7 +4278,7 @@
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B103">
         <v>824</v>
@@ -4276,7 +4289,7 @@
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B104">
         <v>825</v>
@@ -4287,7 +4300,7 @@
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B105">
         <v>826</v>
@@ -4298,7 +4311,7 @@
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B106">
         <v>827</v>
@@ -4309,7 +4322,7 @@
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B107">
         <v>828</v>
@@ -4320,7 +4333,7 @@
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B108">
         <v>829</v>
@@ -4331,7 +4344,7 @@
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B109">
         <v>830</v>
@@ -4342,7 +4355,7 @@
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B110">
         <v>831</v>
@@ -4353,7 +4366,7 @@
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B111">
         <v>832</v>
@@ -4364,7 +4377,7 @@
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B112">
         <v>833</v>
@@ -4375,7 +4388,7 @@
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B113">
         <v>834</v>
@@ -4386,7 +4399,7 @@
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B114">
         <v>835</v>
@@ -4397,7 +4410,7 @@
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B115">
         <v>836</v>
@@ -4408,7 +4421,7 @@
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B116">
         <v>837</v>
@@ -4419,7 +4432,7 @@
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B117">
         <v>838</v>
@@ -4430,7 +4443,7 @@
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B118">
         <v>839</v>
@@ -4441,7 +4454,7 @@
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B119">
         <v>840</v>
@@ -4452,7 +4465,7 @@
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B120">
         <v>841</v>
@@ -4463,7 +4476,7 @@
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B121">
         <v>842</v>
@@ -4474,7 +4487,7 @@
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B122">
         <v>843</v>
@@ -4485,7 +4498,7 @@
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B123">
         <v>844</v>
@@ -4496,7 +4509,7 @@
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B124">
         <v>845</v>
@@ -4507,7 +4520,7 @@
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B125">
         <v>846</v>
@@ -4518,7 +4531,7 @@
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B126">
         <v>847</v>
@@ -4529,7 +4542,7 @@
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B127">
         <v>848</v>
@@ -4540,7 +4553,7 @@
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B128">
         <v>0</v>
@@ -4551,7 +4564,7 @@
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B129">
         <v>1</v>
@@ -4562,7 +4575,7 @@
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B130">
         <v>4</v>
@@ -4573,7 +4586,7 @@
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B131">
         <v>16</v>
@@ -4584,7 +4597,7 @@
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B132">
         <v>28</v>
@@ -4595,7 +4608,7 @@
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B133">
         <v>18</v>
@@ -4606,7 +4619,7 @@
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B134">
         <v>37</v>
@@ -4617,7 +4630,7 @@
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B135">
         <v>41</v>
@@ -4628,7 +4641,7 @@
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B136">
         <v>5</v>
@@ -4639,7 +4652,7 @@
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B137">
         <v>14</v>
@@ -4650,7 +4663,7 @@
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B138">
         <v>17</v>
@@ -4661,7 +4674,7 @@
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B139">
         <v>32</v>
@@ -4672,7 +4685,7 @@
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B140">
         <v>33</v>
@@ -4683,7 +4696,7 @@
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B141">
         <v>48</v>
@@ -4694,7 +4707,7 @@
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B142">
         <v>11</v>
@@ -4705,7 +4718,7 @@
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B143">
         <v>19</v>
@@ -4716,7 +4729,7 @@
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B144">
         <v>22</v>
@@ -4727,7 +4740,7 @@
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B145">
         <v>12</v>
@@ -4738,7 +4751,7 @@
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B146">
         <v>13</v>
@@ -4749,7 +4762,7 @@
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B147">
         <v>15</v>
@@ -4760,7 +4773,7 @@
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B148">
         <v>6</v>
@@ -4771,7 +4784,7 @@
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B149">
         <v>10</v>
@@ -4782,7 +4795,7 @@
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B150">
         <v>23</v>
@@ -4793,7 +4806,7 @@
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B151">
         <v>47</v>
@@ -4804,7 +4817,7 @@
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B152">
         <v>42</v>
@@ -4815,7 +4828,7 @@
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B153">
         <v>2</v>
@@ -4826,7 +4839,7 @@
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B154">
         <v>36</v>
@@ -4837,7 +4850,7 @@
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B155">
         <v>29</v>
@@ -4848,7 +4861,7 @@
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B156">
         <v>34</v>
@@ -4859,7 +4872,7 @@
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B157">
         <v>44</v>
@@ -4870,7 +4883,7 @@
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B158">
         <v>21</v>
@@ -4881,7 +4894,7 @@
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B159">
         <v>43</v>
@@ -4892,7 +4905,7 @@
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B160">
         <v>20</v>
@@ -4903,7 +4916,7 @@
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B161">
         <v>31</v>
@@ -4914,7 +4927,7 @@
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B162">
         <v>45</v>
@@ -4925,7 +4938,7 @@
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B163">
         <v>9</v>
@@ -4936,7 +4949,7 @@
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B164">
         <v>27</v>
@@ -4947,7 +4960,7 @@
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B165">
         <v>3</v>
@@ -4958,7 +4971,7 @@
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B166">
         <v>38</v>
@@ -4969,7 +4982,7 @@
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B167">
         <v>40</v>
@@ -4980,7 +4993,7 @@
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B168">
         <v>30</v>
@@ -4991,7 +5004,7 @@
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B169">
         <v>35</v>
@@ -5002,7 +5015,7 @@
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B170">
         <v>8</v>
@@ -5013,7 +5026,7 @@
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B171">
         <v>26</v>
@@ -5038,91 +5051,91 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.7109375" style="23" customWidth="1"/>
+    <col min="1" max="1" width="16.7109375" style="16" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" s="22" t="s">
-        <v>119</v>
+      <c r="A1" s="15" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" s="23">
+      <c r="A2" s="16">
         <v>49</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" s="23">
+      <c r="A3" s="16">
         <v>99</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" s="23">
+      <c r="A4" s="16">
         <v>149</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" s="23">
+      <c r="A5" s="16">
         <v>199</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" s="23">
+      <c r="A6" s="16">
         <v>249</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" s="23">
+      <c r="A7" s="16">
         <v>299</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8" s="23">
+      <c r="A8" s="16">
         <v>349</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9" s="23">
+      <c r="A9" s="16">
         <v>399</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10" s="23">
+      <c r="A10" s="16">
         <v>449</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11" s="23">
+      <c r="A11" s="16">
         <v>499</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A12" s="23">
+      <c r="A12" s="16">
         <v>549</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A13" s="23">
+      <c r="A13" s="16">
         <v>599</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A14" s="23">
+      <c r="A14" s="16">
         <v>649</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A15" s="23">
+      <c r="A15" s="16">
         <v>699</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A16" s="23">
+      <c r="A16" s="16">
         <v>749</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" s="23">
+      <c r="A17" s="16">
         <v>799</v>
       </c>
     </row>
@@ -5147,25 +5160,25 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="B1" s="12" t="s">
         <v>99</v>
-      </c>
-      <c r="B1" s="12" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A2" s="14" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A15" s="14" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" s="11" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
   </sheetData>
